--- a/profiles_u.xlsx
+++ b/profiles_u.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Документы\GitHub\My_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD978D9-DA6B-4B2B-9CB6-C61C749A695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC52B5-17B8-4BB7-A9AE-31F887C56143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2717,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408FD670-9089-40E6-AE6C-6BD978CBF367}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2754,19 +2754,19 @@
         <v>1480</v>
       </c>
       <c r="C2">
-        <v>64.470993381750702</v>
+        <v>45.843044735101898</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.5811482268142</v>
+        <v>72.702517806361399</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.993013320879797</v>
+        <v>40.030768539705598</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2777,16 +2777,16 @@
         <v>1480</v>
       </c>
       <c r="C3">
-        <v>81.770450640149406</v>
+        <v>51.184873684844099</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.60249050796316295</v>
+        <v>68.030313027219606</v>
       </c>
       <c r="F3">
-        <v>66.574172930233203</v>
+        <v>112.733548501862</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>1480</v>
       </c>
       <c r="C4">
-        <v>82.094276447300103</v>
+        <v>58.989560837636503</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.42958755490372802</v>
+        <v>63.983343633597997</v>
       </c>
       <c r="F4">
-        <v>40.5955152113822</v>
+        <v>108.06134372272101</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2823,16 +2823,16 @@
         <v>1480</v>
       </c>
       <c r="C5">
-        <v>82.007258711811602</v>
+        <v>66.962464918358805</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.423332256748294</v>
+        <v>61.410091724147499</v>
       </c>
       <c r="F5">
-        <v>40.4226122583228</v>
+        <v>104.014374329099</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>1480</v>
       </c>
       <c r="C6">
-        <v>82.002600627358305</v>
+        <v>73.1831060549368</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.7435617703909099</v>
+        <v>59.318087283870497</v>
       </c>
       <c r="F6">
-        <v>40.416356960167398</v>
+        <v>101.44112241964901</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2869,16 +2869,16 @@
         <v>1480</v>
       </c>
       <c r="C7">
-        <v>85.264462469887903</v>
+        <v>77.905954779800695</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.30801871094768</v>
+        <v>57.175327782790397</v>
       </c>
       <c r="F7">
-        <v>47.73658647381</v>
+        <v>99.349117979371499</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2892,16 +2892,16 @@
         <v>1480</v>
       </c>
       <c r="C8">
-        <v>84.307166563105895</v>
+        <v>82.584114548625493</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>60.460063701243897</v>
+        <v>102.751525039432</v>
       </c>
       <c r="F8">
-        <v>44.301043414366802</v>
+        <v>97.206358478291506</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>1480</v>
       </c>
       <c r="C9">
-        <v>84.301898942681902</v>
+        <v>83.214022553712397</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>60.475060782938897</v>
+        <v>102.836422335138</v>
       </c>
       <c r="F9">
-        <v>0.45308840466292599</v>
+        <v>42.782555734933503</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2938,16 +2938,16 @@
         <v>1480</v>
       </c>
       <c r="C10">
-        <v>84.286894745684506</v>
+        <v>84.266577128667805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>60.4986949021878</v>
+        <v>102.91888984825501</v>
       </c>
       <c r="F10">
-        <v>0.46808548635795699</v>
+        <v>42.867453030639503</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>1480</v>
       </c>
       <c r="C11">
-        <v>83.5358448868799</v>
+        <v>85.928579906131503</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62.5906098828642</v>
+        <v>103.14747230052301</v>
       </c>
       <c r="F11">
-        <v>0.49171960560686501</v>
+        <v>42.949920543755603</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>1480</v>
       </c>
       <c r="C12">
-        <v>82.799530113498605</v>
+        <v>88.422082572867197</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>64.779163394916395</v>
+        <v>103.57286700243201</v>
       </c>
       <c r="F12">
-        <v>2.5836345862832699</v>
+        <v>43.1785029960241</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>1480</v>
       </c>
       <c r="C13">
-        <v>82.616629586439899</v>
+        <v>91.893430952109597</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>65.136068103680799</v>
+        <v>104.365184854777</v>
       </c>
       <c r="F13">
-        <v>4.7721880983354499</v>
+        <v>43.603897697933199</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3030,16 +3030,16 @@
         <v>1480</v>
       </c>
       <c r="C14">
-        <v>81.767953141825004</v>
+        <v>96.487399373042606</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>69.158967020116293</v>
+        <v>105.268123611501</v>
       </c>
       <c r="F14">
-        <v>5.1290928070998296</v>
+        <v>44.396215550277603</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>1480</v>
       </c>
       <c r="C15">
-        <v>84.463369514128502</v>
+        <v>102.968089319798</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9.15199172353541</v>
+        <v>45.2991543070017</v>
       </c>
       <c r="G15">
-        <v>60.006975296580897</v>
+        <v>59.968969304498998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3081,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.55597000267654295</v>
+        <v>0.92341645680734197</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>0.34714304728652801</v>
+      <c r="E18" s="1">
+        <v>7.6372996643049806E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>5.2920571368660498E-2</v>
+        <v>1.4722195819304599E-4</v>
       </c>
       <c r="G18" s="1">
-        <v>4.3966378668269301E-2</v>
+        <v>6.3324591415662204E-5</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3113,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.32207590670362002</v>
+        <v>0.77642845886959799</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.441101740569458</v>
-      </c>
-      <c r="F19">
-        <v>0.11879752999927</v>
-      </c>
-      <c r="G19">
-        <v>0.118024822727652</v>
+        <v>0.22193146909873099</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0641259123113E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.7594611935899505E-4</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3145,19 +3145,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.31881823579703</v>
+        <v>0.59319158667921801</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.440634343009082</v>
-      </c>
-      <c r="F20">
-        <v>0.120316130413929</v>
-      </c>
-      <c r="G20">
-        <v>0.120231290779959</v>
+        <v>0.39997784288323501</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.1649786106610302E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.6655918268866001E-3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3177,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.319701137873247</v>
+        <v>0.43870100361966902</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.44072652299547699</v>
-      </c>
-      <c r="F21">
-        <v>0.119912996238831</v>
-      </c>
-      <c r="G21">
-        <v>0.11965934289244499</v>
+        <v>0.54040170042507996</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.20856383446165E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.8116576106348002E-3</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3209,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.31974547442012902</v>
+        <v>0.34122979930113501</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.440741745241788</v>
-      </c>
-      <c r="F22">
-        <v>0.119890071712994</v>
-      </c>
-      <c r="G22">
-        <v>0.119622708625089</v>
+        <v>0.60632381605219099</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.8968287552830901E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.3478097093843599E-2</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.28773179067702798</v>
+        <v>0.28697362316793301</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.43614493903313001</v>
-      </c>
-      <c r="F23">
-        <v>0.13481704954832799</v>
-      </c>
-      <c r="G23">
-        <v>0.141306220741514</v>
+        <v>0.59801094565313495</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.0768490900736702E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.4246940278195897E-2</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3273,19 +3273,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.29780308833611402</v>
+        <v>0.25314714171111902</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.43463216353640199</v>
+        <v>0.52352089442333205</v>
       </c>
       <c r="F24">
-        <v>0.13084879512504</v>
+        <v>0.11245012503275301</v>
       </c>
       <c r="G24">
-        <v>0.13671595300244299</v>
+        <v>0.110881838832796</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3305,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.29786238072643401</v>
+        <v>0.24488126999719401</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.43461142751937198</v>
+        <v>0.53094323079121197</v>
       </c>
       <c r="F25">
-        <v>0.13083116030846301</v>
+        <v>0.112863047513557</v>
       </c>
       <c r="G25">
-        <v>0.136695031445731</v>
+        <v>0.111312451698037</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3337,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.29803823351891801</v>
+        <v>0.231270673323762</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.43452661424976702</v>
+        <v>0.54310246620496405</v>
       </c>
       <c r="F26">
-        <v>0.13078803646213</v>
+        <v>0.113571047277228</v>
       </c>
       <c r="G26">
-        <v>0.13664711576918401</v>
+        <v>0.11205581319404501</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3369,19 +3369,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.30656700496483902</v>
+        <v>0.21024267634221899</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.43139922047121598</v>
+        <v>0.56193568092351198</v>
       </c>
       <c r="F27">
-        <v>0.12830781273432099</v>
+        <v>0.11463935994112399</v>
       </c>
       <c r="G27">
-        <v>0.13372596182962401</v>
+        <v>0.113182282793145</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.31501200518382999</v>
+        <v>0.17988342877967001</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.42826527448554702</v>
+        <v>0.58874471688637098</v>
       </c>
       <c r="F28">
-        <v>0.12586697051665999</v>
+        <v>0.116380707820948</v>
       </c>
       <c r="G28">
-        <v>0.130855749813964</v>
+        <v>0.114991146513011</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3433,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.317177328813319</v>
+        <v>0.14039630587152899</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.42728344834040399</v>
+        <v>0.62107695299247201</v>
       </c>
       <c r="F29">
-        <v>0.125308759784971</v>
+        <v>0.119960893647338</v>
       </c>
       <c r="G29">
-        <v>0.13023046306130601</v>
+        <v>0.118565847488661</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3464,20 +3464,20 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>0.32670792295920398</v>
+      <c r="C30" s="1">
+        <v>9.5169982630262898E-2</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.42489456277968102</v>
+        <v>0.6449405675598</v>
       </c>
       <c r="F30">
-        <v>0.1221033656603</v>
+        <v>0.13069459332730601</v>
       </c>
       <c r="G30">
-        <v>0.126294148600815</v>
+        <v>0.12919485648263199</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3496,20 +3496,20 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
-        <v>0.29605017529863598</v>
+      <c r="C31" s="1">
+        <v>5.0604060890918602E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.43522775514652601</v>
+        <v>0.61603066894303704</v>
       </c>
       <c r="F31">
-        <v>0.13137717157200099</v>
+        <v>0.166654633275337</v>
       </c>
       <c r="G31">
-        <v>0.137344897982837</v>
+        <v>0.166710636890707</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3534,19 +3534,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.76619579584992503</v>
+        <v>0.97719579056403705</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
-        <v>0.20506453708146599</v>
+      <c r="E34" s="1">
+        <v>2.27811992568735E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>1.7153367175238202E-2</v>
+        <v>1.7266034568324799E-5</v>
       </c>
       <c r="G34" s="1">
-        <v>1.1586299893370899E-2</v>
+        <v>5.7441445206971796E-6</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3566,19 +3566,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.55597003861996097</v>
+        <v>0.92341658186828601</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>0.34714302299461203</v>
-      </c>
-      <c r="F35">
-        <v>5.2920565253352002E-2</v>
+      <c r="E35" s="1">
+        <v>7.6372872018211302E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.47221655987545E-4</v>
       </c>
       <c r="G35" s="1">
-        <v>4.3966373132075597E-2</v>
+        <v>6.3324457515434194E-5</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3598,19 +3598,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.552498767515338</v>
+        <v>0.83087989314917099</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.34853747727059398</v>
+        <v>0.168009599098527</v>
       </c>
       <c r="F36" s="1">
-        <v>5.3898261513499197E-2</v>
-      </c>
-      <c r="G36">
-        <v>4.5065493700568997E-2</v>
+        <v>7.2446102257038797E-4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.86046729731033E-4</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.55344975351202796</v>
+        <v>0.72028225175648297</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.34813657733509001</v>
+        <v>0.27543496440119802</v>
       </c>
       <c r="F37" s="1">
-        <v>5.3636801337050503E-2</v>
+        <v>2.6187021946550999E-3</v>
       </c>
       <c r="G37" s="1">
-        <v>4.4776867815831699E-2</v>
+        <v>1.6640816476638199E-3</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3662,19 +3662,19 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.55349531553609199</v>
+        <v>0.62998115530640797</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.34812322684083702</v>
+        <v>0.35728502258265998</v>
       </c>
       <c r="F38" s="1">
-        <v>5.3622258740228197E-2</v>
+        <v>7.3744607128051398E-3</v>
       </c>
       <c r="G38" s="1">
-        <v>4.4759198882843597E-2</v>
+        <v>5.3593613981271796E-3</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3694,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.51765103250184796</v>
+        <v>0.57581211396793597</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.36232607011175899</v>
+        <v>0.39278904091026701</v>
       </c>
       <c r="F39" s="1">
-        <v>6.3783980209413393E-2</v>
+        <v>1.73553309505966E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>5.6238917176979299E-2</v>
+        <v>1.40435141711997E-2</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.52988545129085296</v>
+        <v>0.54907043562701296</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.355797926905357</v>
+        <v>0.38319250038831598</v>
       </c>
       <c r="F40" s="1">
-        <v>6.0884518175446101E-2</v>
+        <v>3.5803746311010798E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>5.3432103628343802E-2</v>
+        <v>3.1933317673660498E-2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3758,19 +3758,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.52995868590699402</v>
+        <v>0.53705490710502701</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.35575208038331002</v>
+        <v>0.39384851433201501</v>
       </c>
       <c r="F41" s="1">
-        <v>6.0870680316226097E-2</v>
-      </c>
-      <c r="G41">
-        <v>5.341855339347E-2</v>
+        <v>3.6470828445036602E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3.2625750117921702E-2</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.53018098386086299</v>
+        <v>0.51666331361734197</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.35560031144100501</v>
+        <v>0.41191106055524901</v>
       </c>
       <c r="F42">
-        <v>6.0834364087119001E-2</v>
+        <v>3.7611878448700002E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>5.3384340611013402E-2</v>
+        <v>3.3813747378708903E-2</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.54065081018318495</v>
+        <v>0.48352703138373498</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.34896292309028898</v>
+        <v>0.44127622075297801</v>
       </c>
       <c r="F43" s="1">
-        <v>5.8892965406950097E-2</v>
+        <v>3.9452913902563599E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>5.1493301319575503E-2</v>
+        <v>3.5743833960722997E-2</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3854,19 +3854,19 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.55082876757191601</v>
+        <v>0.43195863603385598</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.342478447037117</v>
+        <v>0.48680522361310402</v>
       </c>
       <c r="F44" s="1">
-        <v>5.7019504036626902E-2</v>
+        <v>4.2397338715149599E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>4.9673281354339897E-2</v>
+        <v>3.8838801637889497E-2</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3886,19 +3886,19 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0.55344394333304803</v>
+        <v>0.35768291125559099</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.340716880244335</v>
+        <v>0.55121801611604604</v>
       </c>
       <c r="F45" s="1">
-        <v>5.65799910863376E-2</v>
+        <v>4.7238368453110698E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>4.9259185336279099E-2</v>
+        <v>4.3860704175251897E-2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3918,19 +3918,19 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.56435097661468303</v>
+        <v>0.26168476067070401</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.33434034120779299</v>
+        <v>0.62789330996144899</v>
       </c>
       <c r="F46" s="1">
-        <v>5.4312377015346698E-2</v>
+        <v>5.6888503269996497E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>4.6996305162177399E-2</v>
+        <v>5.3533426097851299E-2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3950,19 +3950,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.52772194942357697</v>
+        <v>0.15416826711700801</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.35714279487789602</v>
+        <v>0.68321273509288905</v>
       </c>
       <c r="F47" s="1">
-        <v>6.1297689796582601E-2</v>
+        <v>8.3089145392955505E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>5.3837565901944599E-2</v>
+        <v>7.9529852397147396E-2</v>
       </c>
       <c r="H47">
         <v>0</v>

--- a/profiles_u.xlsx
+++ b/profiles_u.xlsx
@@ -1,41 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Документы\GitHub\My_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC52B5-17B8-4BB7-A9AE-31F887C56143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Stage</t>
   </si>
@@ -154,7 +133,7 @@
     <t>91.2479225204924</t>
   </si>
   <si>
-    <t>L calc</t>
+    <t xml:space="preserve">L calc</t>
   </si>
   <si>
     <t>0.0007</t>
@@ -376,26 +355,24 @@
     <t>0.2826</t>
   </si>
   <si>
+    <t>Draws</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>Draws</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,110 +385,46 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="11" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -522,7 +435,10 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -533,14 +449,28 @@
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="8"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
+            <c:separator xml:space="preserve"> </c:separator>
+            <c:showBubbleSize val="1"/>
+            <c:showCatName val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
@@ -559,19 +489,6 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -580,34 +497,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.44690000000000002</c:v>
+                  <c:v>0.4469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41710000000000003</c:v>
+                  <c:v>0.4171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0.405</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39729999999999999</c:v>
+                  <c:v>0.3973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39729999999999999</c:v>
+                  <c:v>0.3973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39610000000000001</c:v>
+                  <c:v>0.3961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39610000000000001</c:v>
+                  <c:v>0.3961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39539999999999997</c:v>
+                  <c:v>0.3954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39910000000000001</c:v>
+                  <c:v>0.3991</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4239</c:v>
@@ -616,22 +533,21 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D16-423E-B6C5-00767AD9784E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="0">
               <a:noFill/>
             </a:ln>
@@ -653,7 +569,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="B3B3B3"/>
@@ -687,7 +606,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="B3B3B3"/>
@@ -699,7 +621,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="B3B3B3"/>
@@ -722,7 +647,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
@@ -733,8 +661,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
@@ -757,7 +689,14 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
@@ -767,14 +706,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -786,18 +725,14 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>575280</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18359</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -814,8 +749,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -857,17 +1075,17 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -894,7 +1112,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -918,7 +1135,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -937,13 +1153,31 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -978,30 +1212,27 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="6" width="18.77734375" customWidth="1"/>
+    <col customWidth="1" min="5" max="6" width="18.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1041,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1061,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1081,7 +1312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1101,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1121,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1141,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1161,7 +1392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1181,7 +1412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1201,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1221,7 +1452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1241,7 +1472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1249,27 +1480,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="1">
-        <v>5.3674202579192404E-4</v>
+        <v>5.3674202579192404e-004</v>
       </c>
       <c r="B15" s="1">
-        <v>2.52566546943715E-3</v>
+        <v>2.52566546943715e-003</v>
       </c>
       <c r="C15" s="1">
-        <v>7.5357905461021597E-3</v>
+        <v>7.5357905461021597e-003</v>
       </c>
       <c r="D15" s="1">
-        <v>1.7842361485097501E-2</v>
+        <v>1.7842361485097501e-002</v>
       </c>
       <c r="E15" s="1">
-        <v>2.2989482162636798E-2</v>
+        <v>2.2989482162636798e-002</v>
       </c>
       <c r="F15" s="1">
-        <v>5.23428010971458E-2</v>
+        <v>5.23428010971458e-002</v>
       </c>
       <c r="G15" s="1">
-        <v>6.25665932521174E-2</v>
+        <v>6.25665932521174e-002</v>
       </c>
       <c r="H15">
         <v>0.14484332535584801</v>
@@ -1285,25 +1516,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M15">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9999999999999995e-004</v>
       </c>
       <c r="N15">
-        <v>2.5999999999999999E-3</v>
+        <v>2.5999999999999999e-003</v>
       </c>
       <c r="O15">
-        <v>7.6E-3</v>
+        <v>7.6e-003</v>
       </c>
       <c r="P15">
-        <v>1.67E-2</v>
+        <v>1.67e-002</v>
       </c>
       <c r="Q15">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1999999999999999e-002</v>
       </c>
       <c r="R15">
-        <v>4.6899999999999997E-2</v>
+        <v>4.6899999999999997e-002</v>
       </c>
       <c r="S15">
-        <v>5.79E-2</v>
+        <v>5.79e-002</v>
       </c>
       <c r="T15">
         <v>0.1353</v>
@@ -1319,27 +1550,27 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="1">
-        <v>5.6973754649691202E-4</v>
+        <v>5.6973754649691202e-004</v>
       </c>
       <c r="B16" s="1">
-        <v>2.7464985215599098E-3</v>
+        <v>2.7464985215599098e-003</v>
       </c>
       <c r="C16" s="1">
-        <v>8.3111327910826201E-3</v>
+        <v>8.3111327910826201e-003</v>
       </c>
       <c r="D16">
-        <v>1.9886556209791E-2</v>
+        <v>1.9886556209791e-002</v>
       </c>
       <c r="E16" s="1">
-        <v>2.5729198146005199E-2</v>
+        <v>2.5729198146005199e-002</v>
       </c>
       <c r="F16" s="1">
-        <v>5.8940601118703202E-2</v>
+        <v>5.8940601118703202e-002</v>
       </c>
       <c r="G16" s="1">
-        <v>7.0694840364443207E-2</v>
+        <v>7.0694840364443207e-002</v>
       </c>
       <c r="H16">
         <v>0.16098705114748499</v>
@@ -1355,25 +1586,25 @@
         <v>0.99999999999999911</v>
       </c>
       <c r="M16">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N16">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8999999999999998e-003</v>
       </c>
       <c r="O16">
-        <v>8.5000000000000006E-3</v>
+        <v>8.5000000000000006e-003</v>
       </c>
       <c r="P16">
-        <v>1.8499999999999999E-2</v>
+        <v>1.8499999999999999e-002</v>
       </c>
       <c r="Q16">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4299999999999999e-002</v>
       </c>
       <c r="R16">
-        <v>5.1700000000000003E-2</v>
+        <v>5.1700000000000003e-002</v>
       </c>
       <c r="S16">
-        <v>6.3700000000000007E-2</v>
+        <v>6.3700000000000007e-002</v>
       </c>
       <c r="T16">
         <v>0.14549999999999999</v>
@@ -1389,27 +1620,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="1">
-        <v>5.8177054696403104E-4</v>
+        <v>5.8177054696403104e-004</v>
       </c>
       <c r="B17" s="1">
-        <v>2.8045521239632898E-3</v>
+        <v>2.8045521239632898e-003</v>
       </c>
       <c r="C17" s="1">
-        <v>8.4798977461696592E-3</v>
+        <v>8.4798977461696592e-003</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0291966103694901E-2</v>
+        <v>2.0291966103694901e-002</v>
       </c>
       <c r="E17" s="1">
-        <v>2.6261738910467101E-2</v>
+        <v>2.6261738910467101e-002</v>
       </c>
       <c r="F17">
-        <v>6.0221606003492002E-2</v>
+        <v>6.0221606003492002e-002</v>
       </c>
       <c r="G17" s="1">
-        <v>7.2289555097384203E-2</v>
+        <v>7.2289555097384203e-002</v>
       </c>
       <c r="H17">
         <v>0.16526746717246699</v>
@@ -1425,25 +1656,25 @@
         <v>0.99999999999999922</v>
       </c>
       <c r="M17">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N17">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O17">
-        <v>8.6999999999999994E-3</v>
+        <v>8.6999999999999994e-003</v>
       </c>
       <c r="P17">
-        <v>1.9E-2</v>
+        <v>1.9e-002</v>
       </c>
       <c r="Q17">
-        <v>2.4899999999999999E-2</v>
+        <v>2.4899999999999999e-002</v>
       </c>
       <c r="R17">
-        <v>5.2999999999999999E-2</v>
+        <v>5.2999999999999999e-002</v>
       </c>
       <c r="S17">
-        <v>6.5299999999999997E-2</v>
+        <v>6.5299999999999997e-002</v>
       </c>
       <c r="T17">
         <v>0.14910000000000001</v>
@@ -1459,27 +1690,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="1">
-        <v>5.9313837968255905E-4</v>
+        <v>5.9313837968255905e-004</v>
       </c>
       <c r="B18" s="1">
-        <v>2.8528819578291799E-3</v>
+        <v>2.8528819578291799e-003</v>
       </c>
       <c r="C18" s="1">
-        <v>8.6089007863461992E-3</v>
+        <v>8.6089007863461992e-003</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0573445918209698E-2</v>
+        <v>2.0573445918209698e-002</v>
       </c>
       <c r="E18">
-        <v>2.6616771653614001E-2</v>
+        <v>2.6616771653614001e-002</v>
       </c>
       <c r="F18" s="1">
-        <v>6.0962734253666398E-2</v>
+        <v>6.0962734253666398e-002</v>
       </c>
       <c r="G18">
-        <v>7.3164596405113996E-2</v>
+        <v>7.3164596405113996e-002</v>
       </c>
       <c r="H18">
         <v>0.16712924297346499</v>
@@ -1495,25 +1726,25 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N18">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O18">
-        <v>8.8000000000000005E-3</v>
+        <v>8.8000000000000005e-003</v>
       </c>
       <c r="P18">
-        <v>1.9099999999999999E-2</v>
+        <v>1.9099999999999999e-002</v>
       </c>
       <c r="Q18">
-        <v>2.52E-2</v>
+        <v>2.52e-002</v>
       </c>
       <c r="R18">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3499999999999999e-002</v>
       </c>
       <c r="S18">
-        <v>6.59E-2</v>
+        <v>6.59e-002</v>
       </c>
       <c r="T18">
         <v>0.15049999999999999</v>
@@ -1529,27 +1760,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="1">
-        <v>6.0439943516057797E-4</v>
+        <v>6.0439943516057797e-004</v>
       </c>
       <c r="B19" s="1">
-        <v>2.8992781014734602E-3</v>
+        <v>2.8992781014734602e-003</v>
       </c>
       <c r="C19" s="1">
-        <v>8.7304815147066107E-3</v>
+        <v>8.7304815147066107e-003</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0832040142727298E-2</v>
+        <v>2.0832040142727298e-002</v>
       </c>
       <c r="E19" s="1">
-        <v>2.69390935636412E-2</v>
+        <v>2.69390935636412e-002</v>
       </c>
       <c r="F19" s="1">
-        <v>6.1606502901738101E-2</v>
+        <v>6.1606502901738101e-002</v>
       </c>
       <c r="G19" s="1">
-        <v>7.3909497862446397E-2</v>
+        <v>7.3909497862446397e-002</v>
       </c>
       <c r="H19">
         <v>0.16848441845384299</v>
@@ -1565,25 +1796,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M19">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N19">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O19">
-        <v>8.8000000000000005E-3</v>
+        <v>8.8000000000000005e-003</v>
       </c>
       <c r="P19">
-        <v>1.9199999999999998E-2</v>
+        <v>1.9199999999999998e-002</v>
       </c>
       <c r="Q19">
-        <v>2.53E-2</v>
+        <v>2.53e-002</v>
       </c>
       <c r="R19">
-        <v>5.3800000000000001E-2</v>
+        <v>5.3800000000000001e-002</v>
       </c>
       <c r="S19">
-        <v>6.6199999999999995E-2</v>
+        <v>6.6199999999999995e-002</v>
       </c>
       <c r="T19">
         <v>0.1512</v>
@@ -1599,27 +1830,27 @@
         <v>0.99969999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="1">
-        <v>5.9849199509277103E-4</v>
+        <v>5.9849199509277103e-004</v>
       </c>
       <c r="B20" s="1">
-        <v>2.8367726976999399E-3</v>
+        <v>2.8367726976999399e-003</v>
       </c>
       <c r="C20" s="1">
-        <v>8.48464793067614E-3</v>
+        <v>8.48464793067614e-003</v>
       </c>
       <c r="D20" s="1">
-        <v>2.02180275687526E-2</v>
+        <v>2.02180275687526e-002</v>
       </c>
       <c r="E20" s="1">
-        <v>2.6157812177522301E-2</v>
+        <v>2.6157812177522301e-002</v>
       </c>
       <c r="F20" s="1">
-        <v>6.0419452114638901E-2</v>
+        <v>6.0419452114638901e-002</v>
       </c>
       <c r="G20" s="1">
-        <v>7.2748095221888895E-2</v>
+        <v>7.2748095221888895e-002</v>
       </c>
       <c r="H20">
         <v>0.170312280948373</v>
@@ -1635,25 +1866,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M20">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N20">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O20">
-        <v>8.6999999999999994E-3</v>
+        <v>8.6999999999999994e-003</v>
       </c>
       <c r="P20">
-        <v>1.9E-2</v>
+        <v>1.9e-002</v>
       </c>
       <c r="Q20">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001e-002</v>
       </c>
       <c r="R20">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3499999999999999e-002</v>
       </c>
       <c r="S20">
-        <v>6.59E-2</v>
+        <v>6.59e-002</v>
       </c>
       <c r="T20">
         <v>0.152</v>
@@ -1669,27 +1900,27 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="1">
-        <v>6.0828371279171404E-4</v>
+        <v>6.0828371279171404e-004</v>
       </c>
       <c r="B21" s="1">
-        <v>2.8698518561957199E-3</v>
+        <v>2.8698518561957199e-003</v>
       </c>
       <c r="C21" s="1">
-        <v>8.5534212408271294E-3</v>
+        <v>8.5534212408271294e-003</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0320660894767601E-2</v>
+        <v>2.0320660894767601e-002</v>
       </c>
       <c r="E21" s="1">
-        <v>2.62621905340901E-2</v>
+        <v>2.62621905340901e-002</v>
       </c>
       <c r="F21">
-        <v>6.0478976706742002E-2</v>
+        <v>6.0478976706742002e-002</v>
       </c>
       <c r="G21" s="1">
-        <v>7.2765168710533498E-2</v>
+        <v>7.2765168710533498e-002</v>
       </c>
       <c r="H21">
         <v>0.170779325086022</v>
@@ -1705,25 +1936,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M21">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N21">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O21">
-        <v>8.6999999999999994E-3</v>
+        <v>8.6999999999999994e-003</v>
       </c>
       <c r="P21">
-        <v>1.9E-2</v>
+        <v>1.9e-002</v>
       </c>
       <c r="Q21">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001e-002</v>
       </c>
       <c r="R21">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3499999999999999e-002</v>
       </c>
       <c r="S21">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6000000000000003e-002</v>
       </c>
       <c r="T21">
         <v>0.15240000000000001</v>
@@ -1739,27 +1970,27 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="1">
-        <v>5.9282735837423999E-4</v>
+        <v>5.9282735837423999e-004</v>
       </c>
       <c r="B22" s="1">
-        <v>2.75003286267207E-3</v>
+        <v>2.75003286267207e-003</v>
       </c>
       <c r="C22" s="1">
-        <v>8.1179670326506203E-3</v>
+        <v>8.1179670326506203e-003</v>
       </c>
       <c r="D22">
-        <v>1.9248808783053E-2</v>
+        <v>1.9248808783053e-002</v>
       </c>
       <c r="E22">
-        <v>2.4891632505741002E-2</v>
+        <v>2.4891632505741002e-002</v>
       </c>
       <c r="F22" s="1">
-        <v>5.8134376845630498E-2</v>
+        <v>5.8134376845630498e-002</v>
       </c>
       <c r="G22" s="1">
-        <v>7.0294024853201395E-2</v>
+        <v>7.0294024853201395e-002</v>
       </c>
       <c r="H22">
         <v>0.172384260130301</v>
@@ -1775,25 +2006,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M22">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N22">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8999999999999998e-003</v>
       </c>
       <c r="O22">
-        <v>8.3999999999999995E-3</v>
+        <v>8.3999999999999995e-003</v>
       </c>
       <c r="P22">
-        <v>1.8499999999999999E-2</v>
+        <v>1.8499999999999999e-002</v>
       </c>
       <c r="Q22">
-        <v>2.4400000000000002E-2</v>
+        <v>2.4400000000000002e-002</v>
       </c>
       <c r="R22">
-        <v>5.2699999999999997E-2</v>
+        <v>5.2699999999999997e-002</v>
       </c>
       <c r="S22">
-        <v>6.5299999999999997E-2</v>
+        <v>6.5299999999999997e-002</v>
       </c>
       <c r="T22">
         <v>0.1535</v>
@@ -1809,27 +2040,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="1">
-        <v>6.0001224470606501E-4</v>
+        <v>6.0001224470606501e-004</v>
       </c>
       <c r="B23" s="1">
-        <v>2.7594103840932402E-3</v>
+        <v>2.7594103840932402e-003</v>
       </c>
       <c r="C23" s="1">
-        <v>8.0904748344231107E-3</v>
+        <v>8.0904748344231107e-003</v>
       </c>
       <c r="D23" s="1">
-        <v>1.9062267142653699E-2</v>
+        <v>1.9062267142653699e-002</v>
       </c>
       <c r="E23" s="1">
-        <v>2.4588919220783101E-2</v>
+        <v>2.4588919220783101e-002</v>
       </c>
       <c r="F23" s="1">
-        <v>5.70260219257036E-2</v>
+        <v>5.70260219257036e-002</v>
       </c>
       <c r="G23" s="1">
-        <v>6.8822798020225603E-2</v>
+        <v>6.8822798020225603e-002</v>
       </c>
       <c r="H23">
         <v>0.170600683308861</v>
@@ -1845,25 +2076,25 @@
         <v>0.99999999999999944</v>
       </c>
       <c r="M23">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N23">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8999999999999998e-003</v>
       </c>
       <c r="O23">
-        <v>8.3999999999999995E-3</v>
+        <v>8.3999999999999995e-003</v>
       </c>
       <c r="P23">
-        <v>1.84E-2</v>
+        <v>1.84e-002</v>
       </c>
       <c r="Q23">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4299999999999999e-002</v>
       </c>
       <c r="R23">
-        <v>5.2400000000000002E-2</v>
+        <v>5.2400000000000002e-002</v>
       </c>
       <c r="S23">
-        <v>6.4899999999999999E-2</v>
+        <v>6.4899999999999999e-002</v>
       </c>
       <c r="T23">
         <v>0.15340000000000001</v>
@@ -1879,27 +2110,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="1">
-        <v>5.6884532954348105E-4</v>
+        <v>5.6884532954348105e-004</v>
       </c>
       <c r="B24" s="1">
-        <v>2.54029760348284E-3</v>
+        <v>2.54029760348284e-003</v>
       </c>
       <c r="C24" s="1">
-        <v>7.3207036750896296E-3</v>
+        <v>7.3207036750896296e-003</v>
       </c>
       <c r="D24">
-        <v>1.7131331416814999E-2</v>
+        <v>1.7131331416814999e-002</v>
       </c>
       <c r="E24" s="1">
-        <v>2.2073112307444898E-2</v>
+        <v>2.2073112307444898e-002</v>
       </c>
       <c r="F24" s="1">
-        <v>5.1837455940943501E-2</v>
+        <v>5.1837455940943501e-002</v>
       </c>
       <c r="G24" s="1">
-        <v>6.2809799095055102E-2</v>
+        <v>6.2809799095055102e-002</v>
       </c>
       <c r="H24">
         <v>0.16569191978075001</v>
@@ -1915,25 +2146,25 @@
         <v>0.99999999999999944</v>
       </c>
       <c r="M24">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9999999999999995e-004</v>
       </c>
       <c r="N24">
-        <v>2.7000000000000001E-3</v>
+        <v>2.7000000000000001e-003</v>
       </c>
       <c r="O24">
-        <v>7.9000000000000008E-3</v>
+        <v>7.9000000000000008e-003</v>
       </c>
       <c r="P24">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7299999999999999e-002</v>
       </c>
       <c r="Q24">
-        <v>2.29E-2</v>
+        <v>2.29e-002</v>
       </c>
       <c r="R24">
-        <v>0.05</v>
+        <v>5.0000000000000003e-002</v>
       </c>
       <c r="S24">
-        <v>6.2300000000000001E-2</v>
+        <v>6.2300000000000001e-002</v>
       </c>
       <c r="T24">
         <v>0.1525</v>
@@ -1949,27 +2180,27 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="1">
-        <v>5.6969239837939805E-4</v>
+        <v>5.6969239837939805e-004</v>
       </c>
       <c r="B25" s="1">
-        <v>2.47947058375543E-3</v>
+        <v>2.47947058375543e-003</v>
       </c>
       <c r="C25" s="1">
-        <v>7.0173092373035702E-3</v>
+        <v>7.0173092373035702e-003</v>
       </c>
       <c r="D25" s="1">
-        <v>1.6109714864564501E-2</v>
+        <v>1.6109714864564501e-002</v>
       </c>
       <c r="E25" s="1">
-        <v>2.05876090474034E-2</v>
+        <v>2.05876090474034e-002</v>
       </c>
       <c r="F25" s="1">
-        <v>4.7051858453301398E-2</v>
+        <v>4.7051858453301398e-002</v>
       </c>
       <c r="G25" s="1">
-        <v>5.6465101046418102E-2</v>
+        <v>5.6465101046418102e-002</v>
       </c>
       <c r="H25">
         <v>0.14794321610280101</v>
@@ -1985,25 +2216,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M25">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9999999999999995e-004</v>
       </c>
       <c r="N25">
-        <v>2.5000000000000001E-3</v>
+        <v>2.5000000000000001e-003</v>
       </c>
       <c r="O25">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1999999999999998e-003</v>
       </c>
       <c r="P25">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5900000000000001e-002</v>
       </c>
       <c r="Q25">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1000000000000001e-002</v>
       </c>
       <c r="R25">
-        <v>4.58E-2</v>
+        <v>4.58e-002</v>
       </c>
       <c r="S25">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7000000000000002e-002</v>
       </c>
       <c r="T25">
         <v>0.1421</v>
@@ -2019,12 +2250,12 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28">
         <v>0.12006594120262799</v>
       </c>
@@ -2047,13 +2278,13 @@
         <v>0.10878573891338</v>
       </c>
       <c r="H28">
-        <v>9.0324622556351999E-2</v>
+        <v>9.0324622556351999e-002</v>
       </c>
       <c r="I28" s="1">
-        <v>6.1111610463941299E-2</v>
+        <v>6.1111610463941299e-002</v>
       </c>
       <c r="J28">
-        <v>3.7625419291447998E-2</v>
+        <v>3.7625419291447998e-002</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2086,7 +2317,7 @@
         <v>0.44690000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29">
         <v>0.12306809469308699</v>
       </c>
@@ -2109,13 +2340,13 @@
         <v>0.110341889379227</v>
       </c>
       <c r="H29" s="1">
-        <v>8.8753923343056207E-2</v>
+        <v>8.8753923343056207e-002</v>
       </c>
       <c r="I29" s="1">
-        <v>5.4027090985827801E-2</v>
+        <v>5.4027090985827801e-002</v>
       </c>
       <c r="J29">
-        <v>2.9040889295278E-2</v>
+        <v>2.9040889295278e-002</v>
       </c>
       <c r="N29" t="s">
         <v>40</v>
@@ -2148,7 +2379,7 @@
         <v>0.41710000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30">
         <v>0.12307457673323401</v>
       </c>
@@ -2171,13 +2402,13 @@
         <v>0.110664775830031</v>
       </c>
       <c r="H30" s="1">
-        <v>8.9388834674047901E-2</v>
+        <v>8.9388834674047901e-002</v>
       </c>
       <c r="I30" s="1">
-        <v>5.4185858307950897E-2</v>
+        <v>5.4185858307950897e-002</v>
       </c>
       <c r="J30" s="1">
-        <v>2.74084408661463E-2</v>
+        <v>2.74084408661463e-002</v>
       </c>
       <c r="N30" t="s">
         <v>57</v>
@@ -2210,7 +2441,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31">
         <v>0.123135319593002</v>
       </c>
@@ -2233,13 +2464,13 @@
         <v>0.110746639998536</v>
       </c>
       <c r="H31" s="1">
-        <v>8.9520556538599694E-2</v>
+        <v>8.9520556538599694e-002</v>
       </c>
       <c r="I31" s="1">
-        <v>5.4312769661859703E-2</v>
+        <v>5.4312769661859703e-002</v>
       </c>
       <c r="J31" s="1">
-        <v>2.6675809225545698E-2</v>
+        <v>2.6675809225545698e-002</v>
       </c>
       <c r="N31" t="s">
         <v>57</v>
@@ -2269,10 +2500,10 @@
         <v>71</v>
       </c>
       <c r="W31">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>0.12321473682996301</v>
       </c>
@@ -2295,13 +2526,13 @@
         <v>0.110805011323496</v>
       </c>
       <c r="H32">
-        <v>8.9543202370875E-2</v>
+        <v>8.9543202370875e-002</v>
       </c>
       <c r="I32" s="1">
-        <v>5.4285000724983198E-2</v>
+        <v>5.4285000724983198e-002</v>
       </c>
       <c r="J32" s="1">
-        <v>2.61756967670192E-2</v>
+        <v>2.61756967670192e-002</v>
       </c>
       <c r="N32" t="s">
         <v>57</v>
@@ -2334,7 +2565,7 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33">
         <v>0.12048352335034899</v>
       </c>
@@ -2357,13 +2588,13 @@
         <v>0.112117198918277</v>
       </c>
       <c r="H33" s="1">
-        <v>9.3837110976729796E-2</v>
+        <v>9.3837110976729796e-002</v>
       </c>
       <c r="I33" s="1">
-        <v>5.7181013716964602E-2</v>
+        <v>5.7181013716964602e-002</v>
       </c>
       <c r="J33" s="1">
-        <v>2.75967048345638E-2</v>
+        <v>2.75967048345638e-002</v>
       </c>
       <c r="N33" t="s">
         <v>57</v>
@@ -2396,7 +2627,7 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>0.120473983819663</v>
       </c>
@@ -2419,13 +2650,13 @@
         <v>0.111904621476254</v>
       </c>
       <c r="H34" s="1">
-        <v>9.41726997162083E-2</v>
+        <v>9.41726997162083e-002</v>
       </c>
       <c r="I34" s="1">
-        <v>5.7581742924361697E-2</v>
+        <v>5.7581742924361697e-002</v>
       </c>
       <c r="J34" s="1">
-        <v>2.7637938132086801E-2</v>
+        <v>2.7637938132086801e-002</v>
       </c>
       <c r="N34" t="s">
         <v>57</v>
@@ -2458,7 +2689,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>0.116305930125461</v>
       </c>
@@ -2484,10 +2715,10 @@
         <v>0.100899449824704</v>
       </c>
       <c r="I35" s="1">
-        <v>6.2947338721688395E-2</v>
+        <v>6.2947338721688395e-002</v>
       </c>
       <c r="J35" s="1">
-        <v>3.0144882262420299E-2</v>
+        <v>3.0144882262420299e-002</v>
       </c>
       <c r="N35" t="s">
         <v>40</v>
@@ -2520,7 +2751,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>0.11612072615072799</v>
       </c>
@@ -2546,10 +2777,10 @@
         <v>0.101624541195857</v>
       </c>
       <c r="I36" s="1">
-        <v>6.51891796862097E-2</v>
+        <v>6.51891796862097e-002</v>
       </c>
       <c r="J36" s="1">
-        <v>3.1138367178818901E-2</v>
+        <v>3.1138367178818901e-002</v>
       </c>
       <c r="N36" t="s">
         <v>40</v>
@@ -2582,7 +2813,7 @@
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>0.109789244076143</v>
       </c>
@@ -2608,10 +2839,10 @@
         <v>0.110613237894141</v>
       </c>
       <c r="I37" s="1">
-        <v>7.70738393005546E-2</v>
+        <v>7.70738393005546e-002</v>
       </c>
       <c r="J37" s="1">
-        <v>3.7562690454785302E-2</v>
+        <v>3.7562690454785302e-002</v>
       </c>
       <c r="N37" t="s">
         <v>40</v>
@@ -2644,7 +2875,7 @@
         <v>0.39910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>0.109536320437887</v>
       </c>
@@ -2670,10 +2901,10 @@
         <v>0.107417369768169</v>
       </c>
       <c r="I38" s="1">
-        <v>8.4078712347747706E-2</v>
+        <v>8.4078712347747706e-002</v>
       </c>
       <c r="J38" s="1">
-        <v>4.6298872397142601E-2</v>
+        <v>4.6298872397142601e-002</v>
       </c>
       <c r="N38" t="s">
         <v>104</v>
@@ -2707,23 +2938,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408FD670-9089-40E6-AE6C-6BD978CBF367}">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G47"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G34" activeCellId="0" sqref="G34:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2743,12 +2975,12 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1480</v>
@@ -2769,7 +3001,7 @@
         <v>40.030768539705598</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2792,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2815,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2838,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2861,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2884,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2907,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2930,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2953,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2976,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2999,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3022,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3045,9 +3277,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>1480</v>
@@ -3068,12 +3300,12 @@
         <v>59.968969304498998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3087,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>7.6372996643049806E-2</v>
+        <v>7.6372996643049806e-002</v>
       </c>
       <c r="F18" s="1">
-        <v>1.4722195819304599E-4</v>
+        <v>1.4722195819304599e-004</v>
       </c>
       <c r="G18" s="1">
-        <v>6.3324591415662204E-5</v>
+        <v>6.3324591415662204e-005</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3105,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3122,10 +3354,10 @@
         <v>0.22193146909873099</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0641259123113E-3</v>
+        <v>1.0641259123113e-003</v>
       </c>
       <c r="G19" s="1">
-        <v>5.7594611935899505E-4</v>
+        <v>5.7594611935899505e-004</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3137,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3154,10 +3386,10 @@
         <v>0.39997784288323501</v>
       </c>
       <c r="F20" s="1">
-        <v>4.1649786106610302E-3</v>
+        <v>4.1649786106610302e-003</v>
       </c>
       <c r="G20" s="1">
-        <v>2.6655918268866001E-3</v>
+        <v>2.6655918268866001e-003</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3169,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3186,10 +3418,10 @@
         <v>0.54040170042507996</v>
       </c>
       <c r="F21" s="1">
-        <v>1.20856383446165E-2</v>
+        <v>1.20856383446165e-002</v>
       </c>
       <c r="G21" s="1">
-        <v>8.8116576106348002E-3</v>
+        <v>8.8116576106348002e-003</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3201,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3218,10 +3450,10 @@
         <v>0.60632381605219099</v>
       </c>
       <c r="F22" s="1">
-        <v>2.8968287552830901E-2</v>
+        <v>2.8968287552830901e-002</v>
       </c>
       <c r="G22" s="1">
-        <v>2.3478097093843599E-2</v>
+        <v>2.3478097093843599e-002</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3233,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3250,10 +3482,10 @@
         <v>0.59801094565313495</v>
       </c>
       <c r="F23" s="1">
-        <v>6.0768490900736702E-2</v>
+        <v>6.0768490900736702e-002</v>
       </c>
       <c r="G23" s="1">
-        <v>5.4246940278195897E-2</v>
+        <v>5.4246940278195897e-002</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3265,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3297,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3329,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3361,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3393,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3425,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3457,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3465,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>9.5169982630262898E-2</v>
+        <v>9.5169982630262898e-002</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3489,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3497,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>5.0604060890918602E-2</v>
+        <v>5.0604060890918602e-002</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3521,12 +3753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3540,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>2.27811992568735E-2</v>
+        <v>2.27811992568735e-002</v>
       </c>
       <c r="F34" s="1">
-        <v>1.7266034568324799E-5</v>
+        <v>1.7266034568324799e-005</v>
       </c>
       <c r="G34" s="1">
-        <v>5.7441445206971796E-6</v>
+        <v>5.7441445206971796e-006</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3558,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3572,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>7.6372872018211302E-2</v>
+        <v>7.6372872018211302e-002</v>
       </c>
       <c r="F35" s="1">
-        <v>1.47221655987545E-4</v>
+        <v>1.47221655987545e-004</v>
       </c>
       <c r="G35" s="1">
-        <v>6.3324457515434194E-5</v>
+        <v>6.3324457515434194e-005</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3590,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3607,10 +3839,10 @@
         <v>0.168009599098527</v>
       </c>
       <c r="F36" s="1">
-        <v>7.2446102257038797E-4</v>
+        <v>7.2446102257038797e-004</v>
       </c>
       <c r="G36" s="1">
-        <v>3.86046729731033E-4</v>
+        <v>3.86046729731033e-004</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3622,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3639,10 +3871,10 @@
         <v>0.27543496440119802</v>
       </c>
       <c r="F37" s="1">
-        <v>2.6187021946550999E-3</v>
+        <v>2.6187021946550999e-003</v>
       </c>
       <c r="G37" s="1">
-        <v>1.6640816476638199E-3</v>
+        <v>1.6640816476638199e-003</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3654,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3671,10 +3903,10 @@
         <v>0.35728502258265998</v>
       </c>
       <c r="F38" s="1">
-        <v>7.3744607128051398E-3</v>
+        <v>7.3744607128051398e-003</v>
       </c>
       <c r="G38" s="1">
-        <v>5.3593613981271796E-3</v>
+        <v>5.3593613981271796e-003</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3686,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3703,10 +3935,10 @@
         <v>0.39278904091026701</v>
       </c>
       <c r="F39" s="1">
-        <v>1.73553309505966E-2</v>
+        <v>1.73553309505966e-002</v>
       </c>
       <c r="G39" s="1">
-        <v>1.40435141711997E-2</v>
+        <v>1.40435141711997e-002</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3718,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3735,10 +3967,10 @@
         <v>0.38319250038831598</v>
       </c>
       <c r="F40" s="1">
-        <v>3.5803746311010798E-2</v>
+        <v>3.5803746311010798e-002</v>
       </c>
       <c r="G40" s="1">
-        <v>3.1933317673660498E-2</v>
+        <v>3.1933317673660498e-002</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3750,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3767,10 +3999,10 @@
         <v>0.39384851433201501</v>
       </c>
       <c r="F41" s="1">
-        <v>3.6470828445036602E-2</v>
+        <v>3.6470828445036602e-002</v>
       </c>
       <c r="G41" s="1">
-        <v>3.2625750117921702E-2</v>
+        <v>3.2625750117921702e-002</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3782,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3799,10 +4031,10 @@
         <v>0.41191106055524901</v>
       </c>
       <c r="F42">
-        <v>3.7611878448700002E-2</v>
+        <v>3.7611878448700002e-002</v>
       </c>
       <c r="G42" s="1">
-        <v>3.3813747378708903E-2</v>
+        <v>3.3813747378708903e-002</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3814,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3831,10 +4063,10 @@
         <v>0.44127622075297801</v>
       </c>
       <c r="F43" s="1">
-        <v>3.9452913902563599E-2</v>
+        <v>3.9452913902563599e-002</v>
       </c>
       <c r="G43" s="1">
-        <v>3.5743833960722997E-2</v>
+        <v>3.5743833960722997e-002</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3846,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3863,10 +4095,10 @@
         <v>0.48680522361310402</v>
       </c>
       <c r="F44" s="1">
-        <v>4.2397338715149599E-2</v>
+        <v>4.2397338715149599e-002</v>
       </c>
       <c r="G44" s="1">
-        <v>3.8838801637889497E-2</v>
+        <v>3.8838801637889497e-002</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3878,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3895,10 +4127,10 @@
         <v>0.55121801611604604</v>
       </c>
       <c r="F45" s="1">
-        <v>4.7238368453110698E-2</v>
+        <v>4.7238368453110698e-002</v>
       </c>
       <c r="G45" s="1">
-        <v>4.3860704175251897E-2</v>
+        <v>4.3860704175251897e-002</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3910,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3927,10 +4159,10 @@
         <v>0.62789330996144899</v>
       </c>
       <c r="F46" s="1">
-        <v>5.6888503269996497E-2</v>
+        <v>5.6888503269996497e-002</v>
       </c>
       <c r="G46" s="1">
-        <v>5.3533426097851299E-2</v>
+        <v>5.3533426097851299e-002</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3942,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3959,10 +4191,10 @@
         <v>0.68321273509288905</v>
       </c>
       <c r="F47" s="1">
-        <v>8.3089145392955505E-2</v>
+        <v>8.3089145392955505e-002</v>
       </c>
       <c r="G47" s="1">
-        <v>7.9529852397147396E-2</v>
+        <v>7.9529852397147396e-002</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3975,6 +4207,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/profiles_u.xlsx
+++ b/profiles_u.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Документы\GitHub\My_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA172A63-417F-44EA-A702-F8980B9DCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="new" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>Stage</t>
   </si>
@@ -133,7 +151,7 @@
     <t>91.2479225204924</t>
   </si>
   <si>
-    <t xml:space="preserve">L calc</t>
+    <t>L calc</t>
   </si>
   <si>
     <t>0.0007</t>
@@ -362,15 +380,18 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -385,19 +406,19 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="11" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,17 +429,20 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -435,7 +459,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -449,7 +473,7 @@
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="8"/>
-            <c:spPr bwMode="auto">
+            <c:spPr>
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
@@ -459,18 +483,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:separator xml:space="preserve"> </c:separator>
-            <c:showBubbleSize val="1"/>
-            <c:showCatName val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showPercent val="0"/>
-            <c:showSerName val="0"/>
-            <c:showVal val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
+            <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
@@ -489,6 +502,24 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -497,34 +528,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4469</c:v>
+                  <c:v>0.44690000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4171</c:v>
+                  <c:v>0.41710000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.405</c:v>
+                  <c:v>0.40500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3973</c:v>
+                  <c:v>0.39729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3973</c:v>
+                  <c:v>0.39729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3961</c:v>
+                  <c:v>0.39610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3961</c:v>
+                  <c:v>0.39610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3954</c:v>
+                  <c:v>0.39539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3991</c:v>
+                  <c:v>0.39910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4239</c:v>
@@ -533,18 +564,22 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-516C-4C92-9E60-E1A01F77CF84}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
         </c:dLbls>
         <c:hiLowLines>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -569,7 +604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
+        <c:spPr>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -606,7 +641,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -621,7 +656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
+        <c:spPr>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -647,7 +682,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -661,9 +696,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -689,7 +723,7 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr bwMode="auto">
+  <c:spPr>
     <a:xfrm>
       <a:off x="0" y="0"/>
       <a:ext cx="0" cy="0"/>
@@ -706,14 +740,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -727,11 +761,17 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>18359</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -749,291 +789,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1085,7 +842,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1217,22 +974,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="18.77734375"/>
+    <col min="5" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1272,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1292,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1312,7 +1071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1332,7 +1091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1352,7 +1111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1372,7 +1131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1392,7 +1151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1412,7 +1171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1432,7 +1191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1452,7 +1211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1472,7 +1231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1480,27 +1239,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>5.3674202579192404e-004</v>
+        <v>5.3674202579192404E-4</v>
       </c>
       <c r="B15" s="1">
-        <v>2.52566546943715e-003</v>
+        <v>2.52566546943715E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>7.5357905461021597e-003</v>
+        <v>7.5357905461021597E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>1.7842361485097501e-002</v>
+        <v>1.7842361485097501E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>2.2989482162636798e-002</v>
+        <v>2.2989482162636798E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>5.23428010971458e-002</v>
+        <v>5.23428010971458E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>6.25665932521174e-002</v>
+        <v>6.25665932521174E-2</v>
       </c>
       <c r="H15">
         <v>0.14484332535584801</v>
@@ -1516,25 +1275,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M15">
-        <v>5.9999999999999995e-004</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N15">
-        <v>2.5999999999999999e-003</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="O15">
-        <v>7.6e-003</v>
+        <v>7.6E-3</v>
       </c>
       <c r="P15">
-        <v>1.67e-002</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q15">
-        <v>2.1999999999999999e-002</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="R15">
-        <v>4.6899999999999997e-002</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="S15">
-        <v>5.79e-002</v>
+        <v>5.79E-2</v>
       </c>
       <c r="T15">
         <v>0.1353</v>
@@ -1550,27 +1309,27 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>5.6973754649691202e-004</v>
+        <v>5.6973754649691202E-4</v>
       </c>
       <c r="B16" s="1">
-        <v>2.7464985215599098e-003</v>
+        <v>2.7464985215599098E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>8.3111327910826201e-003</v>
+        <v>8.3111327910826201E-3</v>
       </c>
       <c r="D16">
-        <v>1.9886556209791e-002</v>
+        <v>1.9886556209791E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>2.5729198146005199e-002</v>
+        <v>2.5729198146005199E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>5.8940601118703202e-002</v>
+        <v>5.8940601118703202E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>7.0694840364443207e-002</v>
+        <v>7.0694840364443207E-2</v>
       </c>
       <c r="H16">
         <v>0.16098705114748499</v>
@@ -1586,25 +1345,25 @@
         <v>0.99999999999999911</v>
       </c>
       <c r="M16">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N16">
-        <v>2.8999999999999998e-003</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="O16">
-        <v>8.5000000000000006e-003</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="P16">
-        <v>1.8499999999999999e-002</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="Q16">
-        <v>2.4299999999999999e-002</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="R16">
-        <v>5.1700000000000003e-002</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="S16">
-        <v>6.3700000000000007e-002</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="T16">
         <v>0.14549999999999999</v>
@@ -1620,27 +1379,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>5.8177054696403104e-004</v>
+        <v>5.8177054696403104E-4</v>
       </c>
       <c r="B17" s="1">
-        <v>2.8045521239632898e-003</v>
+        <v>2.8045521239632898E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>8.4798977461696592e-003</v>
+        <v>8.4798977461696592E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0291966103694901e-002</v>
+        <v>2.0291966103694901E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>2.6261738910467101e-002</v>
+        <v>2.6261738910467101E-2</v>
       </c>
       <c r="F17">
-        <v>6.0221606003492002e-002</v>
+        <v>6.0221606003492002E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>7.2289555097384203e-002</v>
+        <v>7.2289555097384203E-2</v>
       </c>
       <c r="H17">
         <v>0.16526746717246699</v>
@@ -1656,25 +1415,25 @@
         <v>0.99999999999999922</v>
       </c>
       <c r="M17">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N17">
-        <v>3.0000000000000001e-003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O17">
-        <v>8.6999999999999994e-003</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="P17">
-        <v>1.9e-002</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q17">
-        <v>2.4899999999999999e-002</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="R17">
-        <v>5.2999999999999999e-002</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="S17">
-        <v>6.5299999999999997e-002</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="T17">
         <v>0.14910000000000001</v>
@@ -1690,27 +1449,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>5.9313837968255905e-004</v>
+        <v>5.9313837968255905E-4</v>
       </c>
       <c r="B18" s="1">
-        <v>2.8528819578291799e-003</v>
+        <v>2.8528819578291799E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>8.6089007863461992e-003</v>
+        <v>8.6089007863461992E-3</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0573445918209698e-002</v>
+        <v>2.0573445918209698E-2</v>
       </c>
       <c r="E18">
-        <v>2.6616771653614001e-002</v>
+        <v>2.6616771653614001E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>6.0962734253666398e-002</v>
+        <v>6.0962734253666398E-2</v>
       </c>
       <c r="G18">
-        <v>7.3164596405113996e-002</v>
+        <v>7.3164596405113996E-2</v>
       </c>
       <c r="H18">
         <v>0.16712924297346499</v>
@@ -1726,25 +1485,25 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N18">
-        <v>3.0000000000000001e-003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O18">
-        <v>8.8000000000000005e-003</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="P18">
-        <v>1.9099999999999999e-002</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="Q18">
-        <v>2.52e-002</v>
+        <v>2.52E-2</v>
       </c>
       <c r="R18">
-        <v>5.3499999999999999e-002</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="S18">
-        <v>6.59e-002</v>
+        <v>6.59E-2</v>
       </c>
       <c r="T18">
         <v>0.15049999999999999</v>
@@ -1760,27 +1519,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>6.0439943516057797e-004</v>
+        <v>6.0439943516057797E-4</v>
       </c>
       <c r="B19" s="1">
-        <v>2.8992781014734602e-003</v>
+        <v>2.8992781014734602E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>8.7304815147066107e-003</v>
+        <v>8.7304815147066107E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0832040142727298e-002</v>
+        <v>2.0832040142727298E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>2.69390935636412e-002</v>
+        <v>2.69390935636412E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>6.1606502901738101e-002</v>
+        <v>6.1606502901738101E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>7.3909497862446397e-002</v>
+        <v>7.3909497862446397E-2</v>
       </c>
       <c r="H19">
         <v>0.16848441845384299</v>
@@ -1796,25 +1555,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M19">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N19">
-        <v>3.0000000000000001e-003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O19">
-        <v>8.8000000000000005e-003</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="P19">
-        <v>1.9199999999999998e-002</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="Q19">
-        <v>2.53e-002</v>
+        <v>2.53E-2</v>
       </c>
       <c r="R19">
-        <v>5.3800000000000001e-002</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="S19">
-        <v>6.6199999999999995e-002</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="T19">
         <v>0.1512</v>
@@ -1830,27 +1589,27 @@
         <v>0.99969999999999992</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>5.9849199509277103e-004</v>
+        <v>5.9849199509277103E-4</v>
       </c>
       <c r="B20" s="1">
-        <v>2.8367726976999399e-003</v>
+        <v>2.8367726976999399E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>8.48464793067614e-003</v>
+        <v>8.48464793067614E-3</v>
       </c>
       <c r="D20" s="1">
-        <v>2.02180275687526e-002</v>
+        <v>2.02180275687526E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>2.6157812177522301e-002</v>
+        <v>2.6157812177522301E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>6.0419452114638901e-002</v>
+        <v>6.0419452114638901E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>7.2748095221888895e-002</v>
+        <v>7.2748095221888895E-2</v>
       </c>
       <c r="H20">
         <v>0.170312280948373</v>
@@ -1866,25 +1625,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M20">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N20">
-        <v>3.0000000000000001e-003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O20">
-        <v>8.6999999999999994e-003</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="P20">
-        <v>1.9e-002</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q20">
-        <v>2.5000000000000001e-002</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R20">
-        <v>5.3499999999999999e-002</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="S20">
-        <v>6.59e-002</v>
+        <v>6.59E-2</v>
       </c>
       <c r="T20">
         <v>0.152</v>
@@ -1900,27 +1659,27 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>6.0828371279171404e-004</v>
+        <v>6.0828371279171404E-4</v>
       </c>
       <c r="B21" s="1">
-        <v>2.8698518561957199e-003</v>
+        <v>2.8698518561957199E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>8.5534212408271294e-003</v>
+        <v>8.5534212408271294E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0320660894767601e-002</v>
+        <v>2.0320660894767601E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>2.62621905340901e-002</v>
+        <v>2.62621905340901E-2</v>
       </c>
       <c r="F21">
-        <v>6.0478976706742002e-002</v>
+        <v>6.0478976706742002E-2</v>
       </c>
       <c r="G21" s="1">
-        <v>7.2765168710533498e-002</v>
+        <v>7.2765168710533498E-2</v>
       </c>
       <c r="H21">
         <v>0.170779325086022</v>
@@ -1936,25 +1695,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M21">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N21">
-        <v>3.0000000000000001e-003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O21">
-        <v>8.6999999999999994e-003</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="P21">
-        <v>1.9e-002</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q21">
-        <v>2.5000000000000001e-002</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R21">
-        <v>5.3499999999999999e-002</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="S21">
-        <v>6.6000000000000003e-002</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="T21">
         <v>0.15240000000000001</v>
@@ -1970,27 +1729,27 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>5.9282735837423999e-004</v>
+        <v>5.9282735837423999E-4</v>
       </c>
       <c r="B22" s="1">
-        <v>2.75003286267207e-003</v>
+        <v>2.75003286267207E-3</v>
       </c>
       <c r="C22" s="1">
-        <v>8.1179670326506203e-003</v>
+        <v>8.1179670326506203E-3</v>
       </c>
       <c r="D22">
-        <v>1.9248808783053e-002</v>
+        <v>1.9248808783053E-2</v>
       </c>
       <c r="E22">
-        <v>2.4891632505741002e-002</v>
+        <v>2.4891632505741002E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>5.8134376845630498e-002</v>
+        <v>5.8134376845630498E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>7.0294024853201395e-002</v>
+        <v>7.0294024853201395E-2</v>
       </c>
       <c r="H22">
         <v>0.172384260130301</v>
@@ -2006,25 +1765,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M22">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N22">
-        <v>2.8999999999999998e-003</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="O22">
-        <v>8.3999999999999995e-003</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="P22">
-        <v>1.8499999999999999e-002</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="Q22">
-        <v>2.4400000000000002e-002</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="R22">
-        <v>5.2699999999999997e-002</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="S22">
-        <v>6.5299999999999997e-002</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="T22">
         <v>0.1535</v>
@@ -2040,27 +1799,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>6.0001224470606501e-004</v>
+        <v>6.0001224470606501E-4</v>
       </c>
       <c r="B23" s="1">
-        <v>2.7594103840932402e-003</v>
+        <v>2.7594103840932402E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>8.0904748344231107e-003</v>
+        <v>8.0904748344231107E-3</v>
       </c>
       <c r="D23" s="1">
-        <v>1.9062267142653699e-002</v>
+        <v>1.9062267142653699E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>2.4588919220783101e-002</v>
+        <v>2.4588919220783101E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>5.70260219257036e-002</v>
+        <v>5.70260219257036E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>6.8822798020225603e-002</v>
+        <v>6.8822798020225603E-2</v>
       </c>
       <c r="H23">
         <v>0.170600683308861</v>
@@ -2076,25 +1835,25 @@
         <v>0.99999999999999944</v>
       </c>
       <c r="M23">
-        <v>6.9999999999999999e-004</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N23">
-        <v>2.8999999999999998e-003</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="O23">
-        <v>8.3999999999999995e-003</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="P23">
-        <v>1.84e-002</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q23">
-        <v>2.4299999999999999e-002</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="R23">
-        <v>5.2400000000000002e-002</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="S23">
-        <v>6.4899999999999999e-002</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="T23">
         <v>0.15340000000000001</v>
@@ -2110,27 +1869,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>5.6884532954348105e-004</v>
+        <v>5.6884532954348105E-4</v>
       </c>
       <c r="B24" s="1">
-        <v>2.54029760348284e-003</v>
+        <v>2.54029760348284E-3</v>
       </c>
       <c r="C24" s="1">
-        <v>7.3207036750896296e-003</v>
+        <v>7.3207036750896296E-3</v>
       </c>
       <c r="D24">
-        <v>1.7131331416814999e-002</v>
+        <v>1.7131331416814999E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>2.2073112307444898e-002</v>
+        <v>2.2073112307444898E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>5.1837455940943501e-002</v>
+        <v>5.1837455940943501E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>6.2809799095055102e-002</v>
+        <v>6.2809799095055102E-2</v>
       </c>
       <c r="H24">
         <v>0.16569191978075001</v>
@@ -2146,25 +1905,25 @@
         <v>0.99999999999999944</v>
       </c>
       <c r="M24">
-        <v>5.9999999999999995e-004</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N24">
-        <v>2.7000000000000001e-003</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="O24">
-        <v>7.9000000000000008e-003</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="P24">
-        <v>1.7299999999999999e-002</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="Q24">
-        <v>2.29e-002</v>
+        <v>2.29E-2</v>
       </c>
       <c r="R24">
-        <v>5.0000000000000003e-002</v>
+        <v>0.05</v>
       </c>
       <c r="S24">
-        <v>6.2300000000000001e-002</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="T24">
         <v>0.1525</v>
@@ -2180,27 +1939,27 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>5.6969239837939805e-004</v>
+        <v>5.6969239837939805E-4</v>
       </c>
       <c r="B25" s="1">
-        <v>2.47947058375543e-003</v>
+        <v>2.47947058375543E-3</v>
       </c>
       <c r="C25" s="1">
-        <v>7.0173092373035702e-003</v>
+        <v>7.0173092373035702E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>1.6109714864564501e-002</v>
+        <v>1.6109714864564501E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>2.05876090474034e-002</v>
+        <v>2.05876090474034E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>4.7051858453301398e-002</v>
+        <v>4.7051858453301398E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>5.6465101046418102e-002</v>
+        <v>5.6465101046418102E-2</v>
       </c>
       <c r="H25">
         <v>0.14794321610280101</v>
@@ -2216,25 +1975,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M25">
-        <v>5.9999999999999995e-004</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N25">
-        <v>2.5000000000000001e-003</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="O25">
-        <v>7.1999999999999998e-003</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="P25">
-        <v>1.5900000000000001e-002</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="Q25">
-        <v>2.1000000000000001e-002</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="R25">
-        <v>4.58e-002</v>
+        <v>4.58E-2</v>
       </c>
       <c r="S25">
-        <v>5.7000000000000002e-002</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="T25">
         <v>0.1421</v>
@@ -2250,12 +2009,12 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.12006594120262799</v>
       </c>
@@ -2278,13 +2037,13 @@
         <v>0.10878573891338</v>
       </c>
       <c r="H28">
-        <v>9.0324622556351999e-002</v>
+        <v>9.0324622556351999E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>6.1111610463941299e-002</v>
+        <v>6.1111610463941299E-2</v>
       </c>
       <c r="J28">
-        <v>3.7625419291447998e-002</v>
+        <v>3.7625419291447998E-2</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2317,7 +2076,7 @@
         <v>0.44690000000000002</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.12306809469308699</v>
       </c>
@@ -2340,13 +2099,13 @@
         <v>0.110341889379227</v>
       </c>
       <c r="H29" s="1">
-        <v>8.8753923343056207e-002</v>
+        <v>8.8753923343056207E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>5.4027090985827801e-002</v>
+        <v>5.4027090985827801E-2</v>
       </c>
       <c r="J29">
-        <v>2.9040889295278e-002</v>
+        <v>2.9040889295278E-2</v>
       </c>
       <c r="N29" t="s">
         <v>40</v>
@@ -2379,7 +2138,7 @@
         <v>0.41710000000000003</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.12307457673323401</v>
       </c>
@@ -2402,13 +2161,13 @@
         <v>0.110664775830031</v>
       </c>
       <c r="H30" s="1">
-        <v>8.9388834674047901e-002</v>
+        <v>8.9388834674047901E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>5.4185858307950897e-002</v>
+        <v>5.4185858307950897E-2</v>
       </c>
       <c r="J30" s="1">
-        <v>2.74084408661463e-002</v>
+        <v>2.74084408661463E-2</v>
       </c>
       <c r="N30" t="s">
         <v>57</v>
@@ -2441,7 +2200,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.123135319593002</v>
       </c>
@@ -2464,13 +2223,13 @@
         <v>0.110746639998536</v>
       </c>
       <c r="H31" s="1">
-        <v>8.9520556538599694e-002</v>
+        <v>8.9520556538599694E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>5.4312769661859703e-002</v>
+        <v>5.4312769661859703E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>2.6675809225545698e-002</v>
+        <v>2.6675809225545698E-2</v>
       </c>
       <c r="N31" t="s">
         <v>57</v>
@@ -2500,10 +2259,10 @@
         <v>71</v>
       </c>
       <c r="W31">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.12321473682996301</v>
       </c>
@@ -2526,13 +2285,13 @@
         <v>0.110805011323496</v>
       </c>
       <c r="H32">
-        <v>8.9543202370875e-002</v>
+        <v>8.9543202370875E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>5.4285000724983198e-002</v>
+        <v>5.4285000724983198E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>2.61756967670192e-002</v>
+        <v>2.61756967670192E-2</v>
       </c>
       <c r="N32" t="s">
         <v>57</v>
@@ -2565,7 +2324,7 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.12048352335034899</v>
       </c>
@@ -2588,13 +2347,13 @@
         <v>0.112117198918277</v>
       </c>
       <c r="H33" s="1">
-        <v>9.3837110976729796e-002</v>
+        <v>9.3837110976729796E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>5.7181013716964602e-002</v>
+        <v>5.7181013716964602E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>2.75967048345638e-002</v>
+        <v>2.75967048345638E-2</v>
       </c>
       <c r="N33" t="s">
         <v>57</v>
@@ -2627,7 +2386,7 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.120473983819663</v>
       </c>
@@ -2650,13 +2409,13 @@
         <v>0.111904621476254</v>
       </c>
       <c r="H34" s="1">
-        <v>9.41726997162083e-002</v>
+        <v>9.41726997162083E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>5.7581742924361697e-002</v>
+        <v>5.7581742924361697E-2</v>
       </c>
       <c r="J34" s="1">
-        <v>2.7637938132086801e-002</v>
+        <v>2.7637938132086801E-2</v>
       </c>
       <c r="N34" t="s">
         <v>57</v>
@@ -2689,7 +2448,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.116305930125461</v>
       </c>
@@ -2715,10 +2474,10 @@
         <v>0.100899449824704</v>
       </c>
       <c r="I35" s="1">
-        <v>6.2947338721688395e-002</v>
+        <v>6.2947338721688395E-2</v>
       </c>
       <c r="J35" s="1">
-        <v>3.0144882262420299e-002</v>
+        <v>3.0144882262420299E-2</v>
       </c>
       <c r="N35" t="s">
         <v>40</v>
@@ -2751,7 +2510,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.11612072615072799</v>
       </c>
@@ -2777,10 +2536,10 @@
         <v>0.101624541195857</v>
       </c>
       <c r="I36" s="1">
-        <v>6.51891796862097e-002</v>
+        <v>6.51891796862097E-2</v>
       </c>
       <c r="J36" s="1">
-        <v>3.1138367178818901e-002</v>
+        <v>3.1138367178818901E-2</v>
       </c>
       <c r="N36" t="s">
         <v>40</v>
@@ -2813,7 +2572,7 @@
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.109789244076143</v>
       </c>
@@ -2839,10 +2598,10 @@
         <v>0.110613237894141</v>
       </c>
       <c r="I37" s="1">
-        <v>7.70738393005546e-002</v>
+        <v>7.70738393005546E-2</v>
       </c>
       <c r="J37" s="1">
-        <v>3.7562690454785302e-002</v>
+        <v>3.7562690454785302E-2</v>
       </c>
       <c r="N37" t="s">
         <v>40</v>
@@ -2875,7 +2634,7 @@
         <v>0.39910000000000001</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.109536320437887</v>
       </c>
@@ -2901,10 +2660,10 @@
         <v>0.107417369768169</v>
       </c>
       <c r="I38" s="1">
-        <v>8.4078712347747706e-002</v>
+        <v>8.4078712347747706E-2</v>
       </c>
       <c r="J38" s="1">
-        <v>4.6298872397142601e-002</v>
+        <v>4.6298872397142601E-2</v>
       </c>
       <c r="N38" t="s">
         <v>104</v>
@@ -2938,24 +2697,23 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="G34" activeCellId="0" sqref="G34:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2986,22 +2744,22 @@
         <v>1480</v>
       </c>
       <c r="C2">
-        <v>45.843044735101898</v>
+        <v>48.175470347432203</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>72.702517806361399</v>
+        <v>92.2261334583646</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>40.030768539705598</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>39.995338843016697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3009,22 +2767,22 @@
         <v>1480</v>
       </c>
       <c r="C3">
-        <v>51.184873684844099</v>
+        <v>53.938688046726398</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>68.030313027219606</v>
+        <v>87.103293513691</v>
       </c>
       <c r="F3">
-        <v>112.733548501862</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>132.22151326141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3032,22 +2790,22 @@
         <v>1480</v>
       </c>
       <c r="C4">
-        <v>58.989560837636503</v>
+        <v>60.788449276262497</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>63.983343633597997</v>
+        <v>83.0636607550733</v>
       </c>
       <c r="F4">
-        <v>108.06134372272101</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>127.098673316736</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3055,22 +2813,22 @@
         <v>1480</v>
       </c>
       <c r="C5">
-        <v>66.962464918358805</v>
+        <v>67.410609938406694</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>61.410091724147499</v>
+        <v>80.298915483924006</v>
       </c>
       <c r="F5">
-        <v>104.014374329099</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>123.05904055811899</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3078,22 +2836,22 @@
         <v>1480</v>
       </c>
       <c r="C6">
-        <v>73.1831060549368</v>
+        <v>73.036811426617206</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>59.318087283870497</v>
+        <v>78.135787927674201</v>
       </c>
       <c r="F6">
-        <v>101.44112241964901</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>120.294295286969</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3101,22 +2859,22 @@
         <v>1480</v>
       </c>
       <c r="C7">
-        <v>77.905954779800695</v>
+        <v>77.816242934677206</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>57.175327782790397</v>
+        <v>75.914028272250604</v>
       </c>
       <c r="F7">
-        <v>99.349117979371499</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>118.131167730719</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3124,22 +2882,22 @@
         <v>1480</v>
       </c>
       <c r="C8">
-        <v>82.584114548625493</v>
+        <v>82.317246150598393</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>102.751525039432</v>
+        <v>123.167018849752</v>
       </c>
       <c r="F8">
-        <v>97.206358478291506</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>115.909408075296</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3147,22 +2905,22 @@
         <v>1480</v>
       </c>
       <c r="C9">
-        <v>83.214022553712397</v>
+        <v>83.123239488840596</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>102.836422335138</v>
+        <v>123.268126778864</v>
       </c>
       <c r="F9">
-        <v>42.782555734933503</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>63.162398652797101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3170,22 +2928,22 @@
         <v>1480</v>
       </c>
       <c r="C10">
-        <v>84.266577128667805</v>
+        <v>84.322884323024894</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>102.91888984825501</v>
+        <v>123.43711862437399</v>
       </c>
       <c r="F10">
-        <v>42.867453030639503</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>63.263506581908999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3193,22 +2951,22 @@
         <v>1480</v>
       </c>
       <c r="C11">
-        <v>85.928579906131503</v>
+        <v>86.059463703480503</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>103.14747230052301</v>
+        <v>123.71819804853899</v>
       </c>
       <c r="F11">
-        <v>42.949920543755603</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>63.432498427418899</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3216,22 +2974,22 @@
         <v>1480</v>
       </c>
       <c r="C12">
-        <v>88.422082572867197</v>
+        <v>88.49487374313</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>103.57286700243201</v>
+        <v>124.15384652057701</v>
       </c>
       <c r="F12">
-        <v>43.1785029960241</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>63.713577851584198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3239,22 +2997,22 @@
         <v>1480</v>
       </c>
       <c r="C13">
-        <v>91.893430952109597</v>
+        <v>91.822409401978504</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>104.365184854777</v>
+        <v>124.72010128697301</v>
       </c>
       <c r="F13">
-        <v>43.603897697933199</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>64.149226323622401</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3262,22 +3020,22 @@
         <v>1480</v>
       </c>
       <c r="C14">
-        <v>96.487399373042606</v>
+        <v>96.376476743975701</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>105.268123611501</v>
+        <v>125.20144345919</v>
       </c>
       <c r="F14">
-        <v>44.396215550277603</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>64.715481090018599</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -3285,27 +3043,27 @@
         <v>1480</v>
       </c>
       <c r="C15">
-        <v>102.968089319798</v>
+        <v>102.94853102794499</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>59.968969304498998</v>
       </c>
       <c r="F15">
-        <v>45.2991543070017</v>
+        <v>65.196823262235696</v>
       </c>
       <c r="G15">
-        <v>59.968969304498998</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>60.004620196954697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3313,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.92341645680734197</v>
+        <v>0.87425343830688695</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>7.6372996643049806e-002</v>
+        <v>0.12404845207347601</v>
       </c>
       <c r="F18" s="1">
-        <v>1.4722195819304599e-004</v>
+        <v>1.3019533551863801E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>6.3324591415662204e-005</v>
+        <v>3.96156264451472E-4</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3337,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3345,19 +3103,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.77642845886959799</v>
+        <v>0.74035467153859502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.22193146909873099</v>
+        <v>0.25287979530920701</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0641259123113e-003</v>
+        <v>4.8998401137188702E-3</v>
       </c>
       <c r="G19" s="1">
-        <v>5.7594611935899505e-004</v>
+        <v>1.8656930384791501E-3</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3369,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3377,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.59319158667921801</v>
+        <v>0.59909281081268895</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.39997784288323501</v>
+        <v>0.38282650348488401</v>
       </c>
       <c r="F20" s="1">
-        <v>4.1649786106610302e-003</v>
+        <v>1.2369627221780701E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>2.6655918268866001e-003</v>
+        <v>5.7110584806459499E-3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3401,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3409,19 +3167,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.43870100361966902</v>
+        <v>0.48067775422625297</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.54040170042507996</v>
+        <v>0.479884658335337</v>
       </c>
       <c r="F21" s="1">
-        <v>1.20856383446165e-002</v>
+        <v>2.53210395974761E-2</v>
       </c>
       <c r="G21" s="1">
-        <v>8.8116576106348002e-003</v>
+        <v>1.4116547840934E-2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3433,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3441,19 +3199,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.34122979930113501</v>
+        <v>0.39627217947153698</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.60632381605219099</v>
+        <v>0.52845388642162605</v>
       </c>
       <c r="F22" s="1">
-        <v>2.8968287552830901e-002</v>
+        <v>4.5054821772371099E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>2.3478097093843599e-002</v>
+        <v>3.0219112334466398E-2</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3465,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3473,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.28697362316793301</v>
+        <v>0.34023834584526402</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.59801094565313495</v>
+        <v>0.52951647442612104</v>
       </c>
       <c r="F23" s="1">
-        <v>6.0768490900736702e-002</v>
+        <v>7.2239626908640706E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>5.4246940278195897e-002</v>
+        <v>5.8005552819973903E-2</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3497,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3505,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.25314714171111902</v>
+        <v>0.30232143657309202</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.52352089442333205</v>
+        <v>0.49082548178212099</v>
       </c>
       <c r="F24">
-        <v>0.11245012503275301</v>
+        <v>0.105809594166502</v>
       </c>
       <c r="G24">
-        <v>0.110881838832796</v>
+        <v>0.101043487478285</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3529,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3537,19 +3295,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.24488126999719401</v>
+        <v>0.29114597769644002</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.53094323079121197</v>
+        <v>0.50059777444985698</v>
       </c>
       <c r="F25">
-        <v>0.112863047513557</v>
+        <v>0.10660628174296501</v>
       </c>
       <c r="G25">
-        <v>0.111312451698037</v>
+        <v>0.101649966110739</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3561,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3569,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.231270673323762</v>
+        <v>0.27474585372257398</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.54310246620496405</v>
+        <v>0.51484873581541801</v>
       </c>
       <c r="F26">
-        <v>0.113571047277228</v>
+        <v>0.10783158404750801</v>
       </c>
       <c r="G26">
-        <v>0.11205581319404501</v>
+        <v>0.1025738264145</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3593,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3601,19 +3359,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.21024267634221899</v>
+        <v>0.25154282971515302</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.56193568092351198</v>
+        <v>0.534637036298241</v>
       </c>
       <c r="F27">
-        <v>0.11463935994112399</v>
+        <v>0.109782065323556</v>
       </c>
       <c r="G27">
-        <v>0.113182282793145</v>
+        <v>0.10403806866305</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3625,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3633,19 +3391,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.17988342877967001</v>
+        <v>0.22027898044231001</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.58874471688637098</v>
+        <v>0.55988463770179997</v>
       </c>
       <c r="F28">
-        <v>0.116380707820948</v>
+        <v>0.113172598162745</v>
       </c>
       <c r="G28">
-        <v>0.114991146513011</v>
+        <v>0.106663783693145</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3657,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3665,19 +3423,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.14039630587152899</v>
+        <v>0.180679610524937</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.62107695299247201</v>
+        <v>0.58703312966938104</v>
       </c>
       <c r="F29">
-        <v>0.119960893647338</v>
+        <v>0.119869737293906</v>
       </c>
       <c r="G29">
-        <v>0.118565847488661</v>
+        <v>0.112417522511775</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3689,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3697,19 +3455,19 @@
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>9.5169982630262898e-002</v>
+        <v>0.13410000838747901</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.6449405675598</v>
+        <v>0.60424108622331996</v>
       </c>
       <c r="F30">
-        <v>0.13069459332730601</v>
+        <v>0.134416238867129</v>
       </c>
       <c r="G30">
-        <v>0.12919485648263199</v>
+        <v>0.127242666522072</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3721,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3729,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>5.0604060890918602e-002</v>
+        <v>8.3891853392543597E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.61603066894303704</v>
+        <v>0.58393233332386496</v>
       </c>
       <c r="F31">
-        <v>0.166654633275337</v>
+        <v>0.16578603262753899</v>
       </c>
       <c r="G31">
-        <v>0.166710636890707</v>
+        <v>0.16638978065605201</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3753,12 +3511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3766,19 +3524,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.97719579056403705</v>
+        <v>0.94481881009165503</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>2.27811992568735e-002</v>
+        <v>5.47985345721127E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>1.7266034568324799e-005</v>
+        <v>3.0825397371268799E-4</v>
       </c>
       <c r="G34" s="1">
-        <v>5.7441445206971796e-006</v>
+        <v>7.4401362519806405E-5</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3790,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3798,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.92341658186828601</v>
+        <v>0.874253460166867</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>7.6372872018211302e-002</v>
+        <v>0.124048430621001</v>
       </c>
       <c r="F35" s="1">
-        <v>1.47221655987545e-004</v>
+        <v>1.30195304735481E-3</v>
       </c>
       <c r="G35" s="1">
-        <v>6.3324457515434194e-005</v>
+        <v>3.96156164777147E-4</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3822,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3830,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.83087989314917099</v>
+        <v>0.782489925846648</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.168009599098527</v>
+        <v>0.21233915703765299</v>
       </c>
       <c r="F36" s="1">
-        <v>7.2446102257038797e-004</v>
+        <v>3.7676576578154499E-3</v>
       </c>
       <c r="G36" s="1">
-        <v>3.86046729731033e-004</v>
+        <v>1.40325945788308E-3</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3854,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3862,19 +3620,19 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.72028225175648297</v>
+        <v>0.68852270270784599</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.27543496440119802</v>
+        <v>0.29872110789241801</v>
       </c>
       <c r="F37" s="1">
-        <v>2.6187021946550999e-003</v>
+        <v>8.7725257124155603E-3</v>
       </c>
       <c r="G37" s="1">
-        <v>1.6640816476638199e-003</v>
+        <v>3.9836636873195599E-3</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3886,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3894,19 +3652,19 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.62998115530640797</v>
+        <v>0.61153360087181796</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.35728502258265998</v>
+        <v>0.36157641254823902</v>
       </c>
       <c r="F38" s="1">
-        <v>7.3744607128051398e-003</v>
+        <v>1.73351869417642E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>5.3593613981271796e-003</v>
+        <v>9.5547996381789794E-3</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3918,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3926,19 +3684,19 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.57581211396793597</v>
+        <v>0.55810114674116196</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.39278904091026701</v>
+        <v>0.39153530609811699</v>
       </c>
       <c r="F39" s="1">
-        <v>1.73553309505966e-002</v>
+        <v>3.0241520049079401E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>1.40435141711997e-002</v>
+        <v>2.01220271116417E-2</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3950,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3958,19 +3716,19 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.54907043562701296</v>
+        <v>0.52450414176794002</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.38319250038831598</v>
+        <v>0.38960677548323902</v>
       </c>
       <c r="F40" s="1">
-        <v>3.5803746311010798e-002</v>
+        <v>4.7762069099237199E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>3.1933317673660498e-002</v>
+        <v>3.81270136495842E-2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3982,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3990,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.53705490710502701</v>
+        <v>0.50983072149711495</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.39384851433201501</v>
+        <v>0.40237346945106001</v>
       </c>
       <c r="F41" s="1">
-        <v>3.6470828445036602e-002</v>
+        <v>4.8831653376071801E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>3.2625750117921702e-002</v>
+        <v>3.8964155675753599E-2</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4014,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -4022,19 +3780,19 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.51666331361734197</v>
+        <v>0.48772384201393898</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.41191106055524901</v>
-      </c>
-      <c r="F42">
-        <v>3.7611878448700002e-002</v>
+        <v>0.42155601997421099</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.0475051164058697E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>3.3813747378708903e-002</v>
+        <v>4.0245086847791399E-2</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4046,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -4054,19 +3812,19 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.48352703138373498</v>
+        <v>0.45528614595111899</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.44127622075297801</v>
+        <v>0.44949840068591201</v>
       </c>
       <c r="F43" s="1">
-        <v>3.9452913902563599e-002</v>
+        <v>5.3008981091898402E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>3.5743833960722997e-002</v>
+        <v>4.2206472271070897E-2</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4078,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4086,19 +3844,19 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.43195863603385598</v>
+        <v>0.40943434199720502</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.48680522361310402</v>
+        <v>0.48821136573852197</v>
       </c>
       <c r="F44" s="1">
-        <v>4.2397338715149599e-002</v>
+        <v>5.7038256218592299E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>3.8838801637889497e-002</v>
+        <v>4.5316036045680901E-2</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4110,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -4118,19 +3876,19 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0.35768291125559099</v>
+        <v>0.34785429549114399</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.55121801611604604</v>
+        <v>0.53739063543380095</v>
       </c>
       <c r="F45" s="1">
-        <v>4.7238368453110698e-002</v>
+        <v>6.3958455869109407E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>4.3860704175251897e-002</v>
+        <v>5.0796613205946098E-2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4142,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -4150,19 +3908,19 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.26168476067070401</v>
+        <v>0.27042185625383602</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.62789330996144899</v>
+        <v>0.58990820845867498</v>
       </c>
       <c r="F46" s="1">
-        <v>5.6888503269996497e-002</v>
+        <v>7.7295845916764999E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>5.3533426097851299e-002</v>
+        <v>6.2374089370724202E-2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4174,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -4182,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.15416826711700801</v>
+        <v>0.18030964131918001</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.68321273509288905</v>
+        <v>0.622932472450898</v>
       </c>
       <c r="F47" s="1">
-        <v>8.3089145392955505e-002</v>
+        <v>0.10554470086781501</v>
       </c>
       <c r="G47" s="1">
-        <v>7.9529852397147396e-002</v>
+        <v>9.1213185362106902E-2</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4207,9 +3965,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/profiles_u.xlsx
+++ b/profiles_u.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Документы\GitHub\My_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA172A63-417F-44EA-A702-F8980B9DCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Stage</t>
   </si>
@@ -151,7 +134,7 @@
     <t>91.2479225204924</t>
   </si>
   <si>
-    <t>L calc</t>
+    <t xml:space="preserve">L calc</t>
   </si>
   <si>
     <t>0.0007</t>
@@ -379,19 +362,79 @@
     <t>c</t>
   </si>
   <si>
+    <t>&lt;empty&gt;</t>
+  </si>
+  <si>
     <t>r</t>
   </si>
   <si>
-    <t>&lt;empty&gt;</t>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>dL</t>
+  </si>
+  <si>
+    <t>dW</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>bW</t>
+  </si>
+  <si>
+    <t>Fj</t>
+  </si>
+  <si>
+    <t>Uj</t>
+  </si>
+  <si>
+    <t>Wj</t>
+  </si>
+  <si>
+    <t>qj</t>
+  </si>
+  <si>
+    <t>Lj0</t>
+  </si>
+  <si>
+    <t>Vj0</t>
+  </si>
+  <si>
+    <t>dj</t>
+  </si>
+  <si>
+    <t>Vj0_</t>
+  </si>
+  <si>
+    <t>Lj0_</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -406,19 +449,22 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="11" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,20 +475,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -459,7 +502,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -473,7 +516,7 @@
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="8"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
@@ -483,7 +526,18 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
+            <c:separator xml:space="preserve"> </c:separator>
+            <c:showBubbleSize val="1"/>
+            <c:showCatName val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
@@ -502,24 +556,6 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </c15:spPr>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -528,34 +564,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.44690000000000002</c:v>
+                  <c:v>0.4469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41710000000000003</c:v>
+                  <c:v>0.4171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0.405</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39729999999999999</c:v>
+                  <c:v>0.3973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39729999999999999</c:v>
+                  <c:v>0.3973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39610000000000001</c:v>
+                  <c:v>0.3961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39610000000000001</c:v>
+                  <c:v>0.3961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39539999999999997</c:v>
+                  <c:v>0.3954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39910000000000001</c:v>
+                  <c:v>0.3991</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4239</c:v>
@@ -564,22 +600,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-516C-4C92-9E60-E1A01F77CF84}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -604,7 +636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -641,7 +673,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -656,7 +688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -682,7 +714,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -696,8 +728,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -723,7 +756,7 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
     <a:xfrm>
       <a:off x="0" y="0"/>
       <a:ext cx="0" cy="0"/>
@@ -740,14 +773,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -761,17 +794,11 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>18359</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -789,8 +816,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -842,7 +1152,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -974,24 +1284,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="6" width="18.77734375" customWidth="1"/>
+    <col customWidth="1" min="5" max="6" width="18.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1031,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1051,7 +1359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1071,7 +1379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1091,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1111,7 +1419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1131,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1151,7 +1459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1171,7 +1479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1191,7 +1499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1211,7 +1519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1231,7 +1539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1239,27 +1547,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="1">
-        <v>5.3674202579192404E-4</v>
+        <v>5.3674202579192404e-004</v>
       </c>
       <c r="B15" s="1">
-        <v>2.52566546943715E-3</v>
+        <v>2.52566546943715e-003</v>
       </c>
       <c r="C15" s="1">
-        <v>7.5357905461021597E-3</v>
+        <v>7.5357905461021597e-003</v>
       </c>
       <c r="D15" s="1">
-        <v>1.7842361485097501E-2</v>
+        <v>1.7842361485097501e-002</v>
       </c>
       <c r="E15" s="1">
-        <v>2.2989482162636798E-2</v>
+        <v>2.2989482162636798e-002</v>
       </c>
       <c r="F15" s="1">
-        <v>5.23428010971458E-2</v>
+        <v>5.23428010971458e-002</v>
       </c>
       <c r="G15" s="1">
-        <v>6.25665932521174E-2</v>
+        <v>6.25665932521174e-002</v>
       </c>
       <c r="H15">
         <v>0.14484332535584801</v>
@@ -1275,25 +1583,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M15">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9999999999999995e-004</v>
       </c>
       <c r="N15">
-        <v>2.5999999999999999E-3</v>
+        <v>2.5999999999999999e-003</v>
       </c>
       <c r="O15">
-        <v>7.6E-3</v>
+        <v>7.6e-003</v>
       </c>
       <c r="P15">
-        <v>1.67E-2</v>
+        <v>1.67e-002</v>
       </c>
       <c r="Q15">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1999999999999999e-002</v>
       </c>
       <c r="R15">
-        <v>4.6899999999999997E-2</v>
+        <v>4.6899999999999997e-002</v>
       </c>
       <c r="S15">
-        <v>5.79E-2</v>
+        <v>5.79e-002</v>
       </c>
       <c r="T15">
         <v>0.1353</v>
@@ -1309,27 +1617,27 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="1">
-        <v>5.6973754649691202E-4</v>
+        <v>5.6973754649691202e-004</v>
       </c>
       <c r="B16" s="1">
-        <v>2.7464985215599098E-3</v>
+        <v>2.7464985215599098e-003</v>
       </c>
       <c r="C16" s="1">
-        <v>8.3111327910826201E-3</v>
+        <v>8.3111327910826201e-003</v>
       </c>
       <c r="D16">
-        <v>1.9886556209791E-2</v>
+        <v>1.9886556209791e-002</v>
       </c>
       <c r="E16" s="1">
-        <v>2.5729198146005199E-2</v>
+        <v>2.5729198146005199e-002</v>
       </c>
       <c r="F16" s="1">
-        <v>5.8940601118703202E-2</v>
+        <v>5.8940601118703202e-002</v>
       </c>
       <c r="G16" s="1">
-        <v>7.0694840364443207E-2</v>
+        <v>7.0694840364443207e-002</v>
       </c>
       <c r="H16">
         <v>0.16098705114748499</v>
@@ -1345,25 +1653,25 @@
         <v>0.99999999999999911</v>
       </c>
       <c r="M16">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N16">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8999999999999998e-003</v>
       </c>
       <c r="O16">
-        <v>8.5000000000000006E-3</v>
+        <v>8.5000000000000006e-003</v>
       </c>
       <c r="P16">
-        <v>1.8499999999999999E-2</v>
+        <v>1.8499999999999999e-002</v>
       </c>
       <c r="Q16">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4299999999999999e-002</v>
       </c>
       <c r="R16">
-        <v>5.1700000000000003E-2</v>
+        <v>5.1700000000000003e-002</v>
       </c>
       <c r="S16">
-        <v>6.3700000000000007E-2</v>
+        <v>6.3700000000000007e-002</v>
       </c>
       <c r="T16">
         <v>0.14549999999999999</v>
@@ -1379,27 +1687,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="1">
-        <v>5.8177054696403104E-4</v>
+        <v>5.8177054696403104e-004</v>
       </c>
       <c r="B17" s="1">
-        <v>2.8045521239632898E-3</v>
+        <v>2.8045521239632898e-003</v>
       </c>
       <c r="C17" s="1">
-        <v>8.4798977461696592E-3</v>
+        <v>8.4798977461696592e-003</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0291966103694901E-2</v>
+        <v>2.0291966103694901e-002</v>
       </c>
       <c r="E17" s="1">
-        <v>2.6261738910467101E-2</v>
+        <v>2.6261738910467101e-002</v>
       </c>
       <c r="F17">
-        <v>6.0221606003492002E-2</v>
+        <v>6.0221606003492002e-002</v>
       </c>
       <c r="G17" s="1">
-        <v>7.2289555097384203E-2</v>
+        <v>7.2289555097384203e-002</v>
       </c>
       <c r="H17">
         <v>0.16526746717246699</v>
@@ -1415,25 +1723,25 @@
         <v>0.99999999999999922</v>
       </c>
       <c r="M17">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N17">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O17">
-        <v>8.6999999999999994E-3</v>
+        <v>8.6999999999999994e-003</v>
       </c>
       <c r="P17">
-        <v>1.9E-2</v>
+        <v>1.9e-002</v>
       </c>
       <c r="Q17">
-        <v>2.4899999999999999E-2</v>
+        <v>2.4899999999999999e-002</v>
       </c>
       <c r="R17">
-        <v>5.2999999999999999E-2</v>
+        <v>5.2999999999999999e-002</v>
       </c>
       <c r="S17">
-        <v>6.5299999999999997E-2</v>
+        <v>6.5299999999999997e-002</v>
       </c>
       <c r="T17">
         <v>0.14910000000000001</v>
@@ -1449,27 +1757,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="1">
-        <v>5.9313837968255905E-4</v>
+        <v>5.9313837968255905e-004</v>
       </c>
       <c r="B18" s="1">
-        <v>2.8528819578291799E-3</v>
+        <v>2.8528819578291799e-003</v>
       </c>
       <c r="C18" s="1">
-        <v>8.6089007863461992E-3</v>
+        <v>8.6089007863461992e-003</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0573445918209698E-2</v>
+        <v>2.0573445918209698e-002</v>
       </c>
       <c r="E18">
-        <v>2.6616771653614001E-2</v>
+        <v>2.6616771653614001e-002</v>
       </c>
       <c r="F18" s="1">
-        <v>6.0962734253666398E-2</v>
+        <v>6.0962734253666398e-002</v>
       </c>
       <c r="G18">
-        <v>7.3164596405113996E-2</v>
+        <v>7.3164596405113996e-002</v>
       </c>
       <c r="H18">
         <v>0.16712924297346499</v>
@@ -1485,25 +1793,25 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N18">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O18">
-        <v>8.8000000000000005E-3</v>
+        <v>8.8000000000000005e-003</v>
       </c>
       <c r="P18">
-        <v>1.9099999999999999E-2</v>
+        <v>1.9099999999999999e-002</v>
       </c>
       <c r="Q18">
-        <v>2.52E-2</v>
+        <v>2.52e-002</v>
       </c>
       <c r="R18">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3499999999999999e-002</v>
       </c>
       <c r="S18">
-        <v>6.59E-2</v>
+        <v>6.59e-002</v>
       </c>
       <c r="T18">
         <v>0.15049999999999999</v>
@@ -1519,27 +1827,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="1">
-        <v>6.0439943516057797E-4</v>
+        <v>6.0439943516057797e-004</v>
       </c>
       <c r="B19" s="1">
-        <v>2.8992781014734602E-3</v>
+        <v>2.8992781014734602e-003</v>
       </c>
       <c r="C19" s="1">
-        <v>8.7304815147066107E-3</v>
+        <v>8.7304815147066107e-003</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0832040142727298E-2</v>
+        <v>2.0832040142727298e-002</v>
       </c>
       <c r="E19" s="1">
-        <v>2.69390935636412E-2</v>
+        <v>2.69390935636412e-002</v>
       </c>
       <c r="F19" s="1">
-        <v>6.1606502901738101E-2</v>
+        <v>6.1606502901738101e-002</v>
       </c>
       <c r="G19" s="1">
-        <v>7.3909497862446397E-2</v>
+        <v>7.3909497862446397e-002</v>
       </c>
       <c r="H19">
         <v>0.16848441845384299</v>
@@ -1555,25 +1863,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M19">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N19">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O19">
-        <v>8.8000000000000005E-3</v>
+        <v>8.8000000000000005e-003</v>
       </c>
       <c r="P19">
-        <v>1.9199999999999998E-2</v>
+        <v>1.9199999999999998e-002</v>
       </c>
       <c r="Q19">
-        <v>2.53E-2</v>
+        <v>2.53e-002</v>
       </c>
       <c r="R19">
-        <v>5.3800000000000001E-2</v>
+        <v>5.3800000000000001e-002</v>
       </c>
       <c r="S19">
-        <v>6.6199999999999995E-2</v>
+        <v>6.6199999999999995e-002</v>
       </c>
       <c r="T19">
         <v>0.1512</v>
@@ -1589,27 +1897,27 @@
         <v>0.99969999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="1">
-        <v>5.9849199509277103E-4</v>
+        <v>5.9849199509277103e-004</v>
       </c>
       <c r="B20" s="1">
-        <v>2.8367726976999399E-3</v>
+        <v>2.8367726976999399e-003</v>
       </c>
       <c r="C20" s="1">
-        <v>8.48464793067614E-3</v>
+        <v>8.48464793067614e-003</v>
       </c>
       <c r="D20" s="1">
-        <v>2.02180275687526E-2</v>
+        <v>2.02180275687526e-002</v>
       </c>
       <c r="E20" s="1">
-        <v>2.6157812177522301E-2</v>
+        <v>2.6157812177522301e-002</v>
       </c>
       <c r="F20" s="1">
-        <v>6.0419452114638901E-2</v>
+        <v>6.0419452114638901e-002</v>
       </c>
       <c r="G20" s="1">
-        <v>7.2748095221888895E-2</v>
+        <v>7.2748095221888895e-002</v>
       </c>
       <c r="H20">
         <v>0.170312280948373</v>
@@ -1625,25 +1933,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M20">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N20">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O20">
-        <v>8.6999999999999994E-3</v>
+        <v>8.6999999999999994e-003</v>
       </c>
       <c r="P20">
-        <v>1.9E-2</v>
+        <v>1.9e-002</v>
       </c>
       <c r="Q20">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001e-002</v>
       </c>
       <c r="R20">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3499999999999999e-002</v>
       </c>
       <c r="S20">
-        <v>6.59E-2</v>
+        <v>6.59e-002</v>
       </c>
       <c r="T20">
         <v>0.152</v>
@@ -1659,27 +1967,27 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="1">
-        <v>6.0828371279171404E-4</v>
+        <v>6.0828371279171404e-004</v>
       </c>
       <c r="B21" s="1">
-        <v>2.8698518561957199E-3</v>
+        <v>2.8698518561957199e-003</v>
       </c>
       <c r="C21" s="1">
-        <v>8.5534212408271294E-3</v>
+        <v>8.5534212408271294e-003</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0320660894767601E-2</v>
+        <v>2.0320660894767601e-002</v>
       </c>
       <c r="E21" s="1">
-        <v>2.62621905340901E-2</v>
+        <v>2.62621905340901e-002</v>
       </c>
       <c r="F21">
-        <v>6.0478976706742002E-2</v>
+        <v>6.0478976706742002e-002</v>
       </c>
       <c r="G21" s="1">
-        <v>7.2765168710533498E-2</v>
+        <v>7.2765168710533498e-002</v>
       </c>
       <c r="H21">
         <v>0.170779325086022</v>
@@ -1695,25 +2003,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M21">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N21">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0000000000000001e-003</v>
       </c>
       <c r="O21">
-        <v>8.6999999999999994E-3</v>
+        <v>8.6999999999999994e-003</v>
       </c>
       <c r="P21">
-        <v>1.9E-2</v>
+        <v>1.9e-002</v>
       </c>
       <c r="Q21">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5000000000000001e-002</v>
       </c>
       <c r="R21">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3499999999999999e-002</v>
       </c>
       <c r="S21">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6000000000000003e-002</v>
       </c>
       <c r="T21">
         <v>0.15240000000000001</v>
@@ -1729,27 +2037,27 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="1">
-        <v>5.9282735837423999E-4</v>
+        <v>5.9282735837423999e-004</v>
       </c>
       <c r="B22" s="1">
-        <v>2.75003286267207E-3</v>
+        <v>2.75003286267207e-003</v>
       </c>
       <c r="C22" s="1">
-        <v>8.1179670326506203E-3</v>
+        <v>8.1179670326506203e-003</v>
       </c>
       <c r="D22">
-        <v>1.9248808783053E-2</v>
+        <v>1.9248808783053e-002</v>
       </c>
       <c r="E22">
-        <v>2.4891632505741002E-2</v>
+        <v>2.4891632505741002e-002</v>
       </c>
       <c r="F22" s="1">
-        <v>5.8134376845630498E-2</v>
+        <v>5.8134376845630498e-002</v>
       </c>
       <c r="G22" s="1">
-        <v>7.0294024853201395E-2</v>
+        <v>7.0294024853201395e-002</v>
       </c>
       <c r="H22">
         <v>0.172384260130301</v>
@@ -1765,25 +2073,25 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="M22">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N22">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8999999999999998e-003</v>
       </c>
       <c r="O22">
-        <v>8.3999999999999995E-3</v>
+        <v>8.3999999999999995e-003</v>
       </c>
       <c r="P22">
-        <v>1.8499999999999999E-2</v>
+        <v>1.8499999999999999e-002</v>
       </c>
       <c r="Q22">
-        <v>2.4400000000000002E-2</v>
+        <v>2.4400000000000002e-002</v>
       </c>
       <c r="R22">
-        <v>5.2699999999999997E-2</v>
+        <v>5.2699999999999997e-002</v>
       </c>
       <c r="S22">
-        <v>6.5299999999999997E-2</v>
+        <v>6.5299999999999997e-002</v>
       </c>
       <c r="T22">
         <v>0.1535</v>
@@ -1799,27 +2107,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="1">
-        <v>6.0001224470606501E-4</v>
+        <v>6.0001224470606501e-004</v>
       </c>
       <c r="B23" s="1">
-        <v>2.7594103840932402E-3</v>
+        <v>2.7594103840932402e-003</v>
       </c>
       <c r="C23" s="1">
-        <v>8.0904748344231107E-3</v>
+        <v>8.0904748344231107e-003</v>
       </c>
       <c r="D23" s="1">
-        <v>1.9062267142653699E-2</v>
+        <v>1.9062267142653699e-002</v>
       </c>
       <c r="E23" s="1">
-        <v>2.4588919220783101E-2</v>
+        <v>2.4588919220783101e-002</v>
       </c>
       <c r="F23" s="1">
-        <v>5.70260219257036E-2</v>
+        <v>5.70260219257036e-002</v>
       </c>
       <c r="G23" s="1">
-        <v>6.8822798020225603E-2</v>
+        <v>6.8822798020225603e-002</v>
       </c>
       <c r="H23">
         <v>0.170600683308861</v>
@@ -1835,25 +2143,25 @@
         <v>0.99999999999999944</v>
       </c>
       <c r="M23">
-        <v>6.9999999999999999E-4</v>
+        <v>6.9999999999999999e-004</v>
       </c>
       <c r="N23">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8999999999999998e-003</v>
       </c>
       <c r="O23">
-        <v>8.3999999999999995E-3</v>
+        <v>8.3999999999999995e-003</v>
       </c>
       <c r="P23">
-        <v>1.84E-2</v>
+        <v>1.84e-002</v>
       </c>
       <c r="Q23">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4299999999999999e-002</v>
       </c>
       <c r="R23">
-        <v>5.2400000000000002E-2</v>
+        <v>5.2400000000000002e-002</v>
       </c>
       <c r="S23">
-        <v>6.4899999999999999E-2</v>
+        <v>6.4899999999999999e-002</v>
       </c>
       <c r="T23">
         <v>0.15340000000000001</v>
@@ -1869,27 +2177,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="1">
-        <v>5.6884532954348105E-4</v>
+        <v>5.6884532954348105e-004</v>
       </c>
       <c r="B24" s="1">
-        <v>2.54029760348284E-3</v>
+        <v>2.54029760348284e-003</v>
       </c>
       <c r="C24" s="1">
-        <v>7.3207036750896296E-3</v>
+        <v>7.3207036750896296e-003</v>
       </c>
       <c r="D24">
-        <v>1.7131331416814999E-2</v>
+        <v>1.7131331416814999e-002</v>
       </c>
       <c r="E24" s="1">
-        <v>2.2073112307444898E-2</v>
+        <v>2.2073112307444898e-002</v>
       </c>
       <c r="F24" s="1">
-        <v>5.1837455940943501E-2</v>
+        <v>5.1837455940943501e-002</v>
       </c>
       <c r="G24" s="1">
-        <v>6.2809799095055102E-2</v>
+        <v>6.2809799095055102e-002</v>
       </c>
       <c r="H24">
         <v>0.16569191978075001</v>
@@ -1905,25 +2213,25 @@
         <v>0.99999999999999944</v>
       </c>
       <c r="M24">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9999999999999995e-004</v>
       </c>
       <c r="N24">
-        <v>2.7000000000000001E-3</v>
+        <v>2.7000000000000001e-003</v>
       </c>
       <c r="O24">
-        <v>7.9000000000000008E-3</v>
+        <v>7.9000000000000008e-003</v>
       </c>
       <c r="P24">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7299999999999999e-002</v>
       </c>
       <c r="Q24">
-        <v>2.29E-2</v>
+        <v>2.29e-002</v>
       </c>
       <c r="R24">
-        <v>0.05</v>
+        <v>5.0000000000000003e-002</v>
       </c>
       <c r="S24">
-        <v>6.2300000000000001E-2</v>
+        <v>6.2300000000000001e-002</v>
       </c>
       <c r="T24">
         <v>0.1525</v>
@@ -1939,27 +2247,27 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="1">
-        <v>5.6969239837939805E-4</v>
+        <v>5.6969239837939805e-004</v>
       </c>
       <c r="B25" s="1">
-        <v>2.47947058375543E-3</v>
+        <v>2.47947058375543e-003</v>
       </c>
       <c r="C25" s="1">
-        <v>7.0173092373035702E-3</v>
+        <v>7.0173092373035702e-003</v>
       </c>
       <c r="D25" s="1">
-        <v>1.6109714864564501E-2</v>
+        <v>1.6109714864564501e-002</v>
       </c>
       <c r="E25" s="1">
-        <v>2.05876090474034E-2</v>
+        <v>2.05876090474034e-002</v>
       </c>
       <c r="F25" s="1">
-        <v>4.7051858453301398E-2</v>
+        <v>4.7051858453301398e-002</v>
       </c>
       <c r="G25" s="1">
-        <v>5.6465101046418102E-2</v>
+        <v>5.6465101046418102e-002</v>
       </c>
       <c r="H25">
         <v>0.14794321610280101</v>
@@ -1975,25 +2283,25 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="M25">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9999999999999995e-004</v>
       </c>
       <c r="N25">
-        <v>2.5000000000000001E-3</v>
+        <v>2.5000000000000001e-003</v>
       </c>
       <c r="O25">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1999999999999998e-003</v>
       </c>
       <c r="P25">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5900000000000001e-002</v>
       </c>
       <c r="Q25">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1000000000000001e-002</v>
       </c>
       <c r="R25">
-        <v>4.58E-2</v>
+        <v>4.58e-002</v>
       </c>
       <c r="S25">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7000000000000002e-002</v>
       </c>
       <c r="T25">
         <v>0.1421</v>
@@ -2009,12 +2317,12 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28">
         <v>0.12006594120262799</v>
       </c>
@@ -2037,13 +2345,13 @@
         <v>0.10878573891338</v>
       </c>
       <c r="H28">
-        <v>9.0324622556351999E-2</v>
+        <v>9.0324622556351999e-002</v>
       </c>
       <c r="I28" s="1">
-        <v>6.1111610463941299E-2</v>
+        <v>6.1111610463941299e-002</v>
       </c>
       <c r="J28">
-        <v>3.7625419291447998E-2</v>
+        <v>3.7625419291447998e-002</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
@@ -2076,7 +2384,7 @@
         <v>0.44690000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29">
         <v>0.12306809469308699</v>
       </c>
@@ -2099,13 +2407,13 @@
         <v>0.110341889379227</v>
       </c>
       <c r="H29" s="1">
-        <v>8.8753923343056207E-2</v>
+        <v>8.8753923343056207e-002</v>
       </c>
       <c r="I29" s="1">
-        <v>5.4027090985827801E-2</v>
+        <v>5.4027090985827801e-002</v>
       </c>
       <c r="J29">
-        <v>2.9040889295278E-2</v>
+        <v>2.9040889295278e-002</v>
       </c>
       <c r="N29" t="s">
         <v>40</v>
@@ -2138,7 +2446,7 @@
         <v>0.41710000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30">
         <v>0.12307457673323401</v>
       </c>
@@ -2161,13 +2469,13 @@
         <v>0.110664775830031</v>
       </c>
       <c r="H30" s="1">
-        <v>8.9388834674047901E-2</v>
+        <v>8.9388834674047901e-002</v>
       </c>
       <c r="I30" s="1">
-        <v>5.4185858307950897E-2</v>
+        <v>5.4185858307950897e-002</v>
       </c>
       <c r="J30" s="1">
-        <v>2.74084408661463E-2</v>
+        <v>2.74084408661463e-002</v>
       </c>
       <c r="N30" t="s">
         <v>57</v>
@@ -2200,7 +2508,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31">
         <v>0.123135319593002</v>
       </c>
@@ -2223,13 +2531,13 @@
         <v>0.110746639998536</v>
       </c>
       <c r="H31" s="1">
-        <v>8.9520556538599694E-2</v>
+        <v>8.9520556538599694e-002</v>
       </c>
       <c r="I31" s="1">
-        <v>5.4312769661859703E-2</v>
+        <v>5.4312769661859703e-002</v>
       </c>
       <c r="J31" s="1">
-        <v>2.6675809225545698E-2</v>
+        <v>2.6675809225545698e-002</v>
       </c>
       <c r="N31" t="s">
         <v>57</v>
@@ -2259,10 +2567,10 @@
         <v>71</v>
       </c>
       <c r="W31">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>0.12321473682996301</v>
       </c>
@@ -2285,13 +2593,13 @@
         <v>0.110805011323496</v>
       </c>
       <c r="H32">
-        <v>8.9543202370875E-2</v>
+        <v>8.9543202370875e-002</v>
       </c>
       <c r="I32" s="1">
-        <v>5.4285000724983198E-2</v>
+        <v>5.4285000724983198e-002</v>
       </c>
       <c r="J32" s="1">
-        <v>2.61756967670192E-2</v>
+        <v>2.61756967670192e-002</v>
       </c>
       <c r="N32" t="s">
         <v>57</v>
@@ -2324,7 +2632,7 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33">
         <v>0.12048352335034899</v>
       </c>
@@ -2347,13 +2655,13 @@
         <v>0.112117198918277</v>
       </c>
       <c r="H33" s="1">
-        <v>9.3837110976729796E-2</v>
+        <v>9.3837110976729796e-002</v>
       </c>
       <c r="I33" s="1">
-        <v>5.7181013716964602E-2</v>
+        <v>5.7181013716964602e-002</v>
       </c>
       <c r="J33" s="1">
-        <v>2.75967048345638E-2</v>
+        <v>2.75967048345638e-002</v>
       </c>
       <c r="N33" t="s">
         <v>57</v>
@@ -2386,7 +2694,7 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>0.120473983819663</v>
       </c>
@@ -2409,13 +2717,13 @@
         <v>0.111904621476254</v>
       </c>
       <c r="H34" s="1">
-        <v>9.41726997162083E-2</v>
+        <v>9.41726997162083e-002</v>
       </c>
       <c r="I34" s="1">
-        <v>5.7581742924361697E-2</v>
+        <v>5.7581742924361697e-002</v>
       </c>
       <c r="J34" s="1">
-        <v>2.7637938132086801E-2</v>
+        <v>2.7637938132086801e-002</v>
       </c>
       <c r="N34" t="s">
         <v>57</v>
@@ -2448,7 +2756,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>0.116305930125461</v>
       </c>
@@ -2474,10 +2782,10 @@
         <v>0.100899449824704</v>
       </c>
       <c r="I35" s="1">
-        <v>6.2947338721688395E-2</v>
+        <v>6.2947338721688395e-002</v>
       </c>
       <c r="J35" s="1">
-        <v>3.0144882262420299E-2</v>
+        <v>3.0144882262420299e-002</v>
       </c>
       <c r="N35" t="s">
         <v>40</v>
@@ -2510,7 +2818,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>0.11612072615072799</v>
       </c>
@@ -2536,10 +2844,10 @@
         <v>0.101624541195857</v>
       </c>
       <c r="I36" s="1">
-        <v>6.51891796862097E-2</v>
+        <v>6.51891796862097e-002</v>
       </c>
       <c r="J36" s="1">
-        <v>3.1138367178818901E-2</v>
+        <v>3.1138367178818901e-002</v>
       </c>
       <c r="N36" t="s">
         <v>40</v>
@@ -2572,7 +2880,7 @@
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>0.109789244076143</v>
       </c>
@@ -2598,10 +2906,10 @@
         <v>0.110613237894141</v>
       </c>
       <c r="I37" s="1">
-        <v>7.70738393005546E-2</v>
+        <v>7.70738393005546e-002</v>
       </c>
       <c r="J37" s="1">
-        <v>3.7562690454785302E-2</v>
+        <v>3.7562690454785302e-002</v>
       </c>
       <c r="N37" t="s">
         <v>40</v>
@@ -2634,7 +2942,7 @@
         <v>0.39910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>0.109536320437887</v>
       </c>
@@ -2660,10 +2968,10 @@
         <v>0.107417369768169</v>
       </c>
       <c r="I38" s="1">
-        <v>8.4078712347747706E-2</v>
+        <v>8.4078712347747706e-002</v>
       </c>
       <c r="J38" s="1">
-        <v>4.6298872397142601E-2</v>
+        <v>4.6298872397142601e-002</v>
       </c>
       <c r="N38" t="s">
         <v>104</v>
@@ -2697,23 +3005,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:J47"/>
+    <sheetView topLeftCell="A26" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A34" activeCellId="0" sqref="A34:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +3045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2759,7 +3068,7 @@
         <v>39.995338843016697</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2779,10 +3088,10 @@
         <v>132.22151326141</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2802,10 +3111,10 @@
         <v>127.098673316736</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2825,10 +3134,10 @@
         <v>123.05904055811899</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2848,10 +3157,10 @@
         <v>120.294295286969</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2871,10 +3180,10 @@
         <v>118.131167730719</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2894,10 +3203,10 @@
         <v>115.909408075296</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2917,10 +3226,10 @@
         <v>63.162398652797101</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2940,10 +3249,10 @@
         <v>63.263506581908999</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2963,10 +3272,10 @@
         <v>63.432498427418899</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2986,10 +3295,10 @@
         <v>63.713577851584198</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3009,10 +3318,10 @@
         <v>64.149226323622401</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3032,12 +3341,12 @@
         <v>64.715481090018599</v>
       </c>
       <c r="G14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>115</v>
       </c>
       <c r="B15">
         <v>1480</v>
@@ -3058,12 +3367,12 @@
         <v>60.004620196954697</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3080,10 +3389,10 @@
         <v>0.12404845207347601</v>
       </c>
       <c r="F18" s="1">
-        <v>1.3019533551863801E-3</v>
+        <v>1.3019533551863801e-003</v>
       </c>
       <c r="G18" s="1">
-        <v>3.96156264451472E-4</v>
+        <v>3.96156264451472e-004</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3095,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3112,10 +3421,10 @@
         <v>0.25287979530920701</v>
       </c>
       <c r="F19" s="1">
-        <v>4.8998401137188702E-3</v>
+        <v>4.8998401137188702e-003</v>
       </c>
       <c r="G19" s="1">
-        <v>1.8656930384791501E-3</v>
+        <v>1.8656930384791501e-003</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3127,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3144,10 +3453,10 @@
         <v>0.38282650348488401</v>
       </c>
       <c r="F20" s="1">
-        <v>1.2369627221780701E-2</v>
+        <v>1.2369627221780701e-002</v>
       </c>
       <c r="G20" s="1">
-        <v>5.7110584806459499E-3</v>
+        <v>5.7110584806459499e-003</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3159,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3176,10 +3485,10 @@
         <v>0.479884658335337</v>
       </c>
       <c r="F21" s="1">
-        <v>2.53210395974761E-2</v>
+        <v>2.53210395974761e-002</v>
       </c>
       <c r="G21" s="1">
-        <v>1.4116547840934E-2</v>
+        <v>1.4116547840934e-002</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3191,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3208,10 +3517,10 @@
         <v>0.52845388642162605</v>
       </c>
       <c r="F22" s="1">
-        <v>4.5054821772371099E-2</v>
+        <v>4.5054821772371099e-002</v>
       </c>
       <c r="G22" s="1">
-        <v>3.0219112334466398E-2</v>
+        <v>3.0219112334466398e-002</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3223,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3240,10 +3549,10 @@
         <v>0.52951647442612104</v>
       </c>
       <c r="F23" s="1">
-        <v>7.2239626908640706E-2</v>
+        <v>7.2239626908640706e-002</v>
       </c>
       <c r="G23" s="1">
-        <v>5.8005552819973903E-2</v>
+        <v>5.8005552819973903e-002</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3255,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3287,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3319,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3351,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3383,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3415,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3447,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3479,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3487,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>8.3891853392543597E-2</v>
+        <v>8.3891853392543597e-002</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3511,12 +3820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3530,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>5.47985345721127E-2</v>
+        <v>5.47985345721127e-002</v>
       </c>
       <c r="F34" s="1">
-        <v>3.0825397371268799E-4</v>
+        <v>3.0825397371268799e-004</v>
       </c>
       <c r="G34" s="1">
-        <v>7.4401362519806405E-5</v>
+        <v>7.4401362519806405e-005</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3548,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3565,10 +3874,10 @@
         <v>0.124048430621001</v>
       </c>
       <c r="F35" s="1">
-        <v>1.30195304735481E-3</v>
+        <v>1.30195304735481e-003</v>
       </c>
       <c r="G35" s="1">
-        <v>3.96156164777147E-4</v>
+        <v>3.96156164777147e-004</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3580,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3597,10 +3906,10 @@
         <v>0.21233915703765299</v>
       </c>
       <c r="F36" s="1">
-        <v>3.7676576578154499E-3</v>
+        <v>3.7676576578154499e-003</v>
       </c>
       <c r="G36" s="1">
-        <v>1.40325945788308E-3</v>
+        <v>1.40325945788308e-003</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3612,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3629,10 +3938,10 @@
         <v>0.29872110789241801</v>
       </c>
       <c r="F37" s="1">
-        <v>8.7725257124155603E-3</v>
+        <v>8.7725257124155603e-003</v>
       </c>
       <c r="G37" s="1">
-        <v>3.9836636873195599E-3</v>
+        <v>3.9836636873195599e-003</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3644,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3661,10 +3970,10 @@
         <v>0.36157641254823902</v>
       </c>
       <c r="F38" s="1">
-        <v>1.73351869417642E-2</v>
+        <v>1.73351869417642e-002</v>
       </c>
       <c r="G38" s="1">
-        <v>9.5547996381789794E-3</v>
+        <v>9.5547996381789794e-003</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3676,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3693,10 +4002,10 @@
         <v>0.39153530609811699</v>
       </c>
       <c r="F39" s="1">
-        <v>3.0241520049079401E-2</v>
+        <v>3.0241520049079401e-002</v>
       </c>
       <c r="G39" s="1">
-        <v>2.01220271116417E-2</v>
+        <v>2.01220271116417e-002</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3708,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3725,10 +4034,10 @@
         <v>0.38960677548323902</v>
       </c>
       <c r="F40" s="1">
-        <v>4.7762069099237199E-2</v>
+        <v>4.7762069099237199e-002</v>
       </c>
       <c r="G40" s="1">
-        <v>3.81270136495842E-2</v>
+        <v>3.81270136495842e-002</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3740,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3757,10 +4066,10 @@
         <v>0.40237346945106001</v>
       </c>
       <c r="F41" s="1">
-        <v>4.8831653376071801E-2</v>
+        <v>4.8831653376071801e-002</v>
       </c>
       <c r="G41" s="1">
-        <v>3.8964155675753599E-2</v>
+        <v>3.8964155675753599e-002</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3772,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3789,10 +4098,10 @@
         <v>0.42155601997421099</v>
       </c>
       <c r="F42" s="1">
-        <v>5.0475051164058697E-2</v>
+        <v>5.0475051164058697e-002</v>
       </c>
       <c r="G42" s="1">
-        <v>4.0245086847791399E-2</v>
+        <v>4.0245086847791399e-002</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3804,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3821,10 +4130,10 @@
         <v>0.44949840068591201</v>
       </c>
       <c r="F43" s="1">
-        <v>5.3008981091898402E-2</v>
+        <v>5.3008981091898402e-002</v>
       </c>
       <c r="G43" s="1">
-        <v>4.2206472271070897E-2</v>
+        <v>4.2206472271070897e-002</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3836,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3853,10 +4162,10 @@
         <v>0.48821136573852197</v>
       </c>
       <c r="F44" s="1">
-        <v>5.7038256218592299E-2</v>
+        <v>5.7038256218592299e-002</v>
       </c>
       <c r="G44" s="1">
-        <v>4.5316036045680901E-2</v>
+        <v>4.5316036045680901e-002</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3868,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3885,10 +4194,10 @@
         <v>0.53739063543380095</v>
       </c>
       <c r="F45" s="1">
-        <v>6.3958455869109407E-2</v>
+        <v>6.3958455869109407e-002</v>
       </c>
       <c r="G45" s="1">
-        <v>5.0796613205946098E-2</v>
+        <v>5.0796613205946098e-002</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3900,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3917,10 +4226,10 @@
         <v>0.58990820845867498</v>
       </c>
       <c r="F46" s="1">
-        <v>7.7295845916764999E-2</v>
+        <v>7.7295845916764999e-002</v>
       </c>
       <c r="G46" s="1">
-        <v>6.2374089370724202E-2</v>
+        <v>6.2374089370724202e-002</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3932,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3952,7 +4261,7 @@
         <v>0.10554470086781501</v>
       </c>
       <c r="G47" s="1">
-        <v>9.1213185362106902E-2</v>
+        <v>9.1213185362106902e-002</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3965,7 +4274,812 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="21" max="21" width="9.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>A2*C2</f>
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>(I2+J2)/(L2+M2)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>M2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>L2</f>
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>(A2*H2+(A2+1)*H16+Q17)/(A2+B2+1)</f>
+        <v>60.000006000000596</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>((B2+1)*H2+A2*H16+S17)/(A2+B2+1)</f>
+        <v>39.999993999999404</v>
+      </c>
+      <c r="U2">
+        <f>T2+R2</f>
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <f>H2+O3-P2-I2-J2</f>
+        <v>-1.9999999992137418e-005</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>L2-H3-I3</f>
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <f>$C$2+$D$2+$L$2-J2</f>
+        <v>80</v>
+      </c>
+      <c r="N3">
+        <f>(I3+J3)/(L3+M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>((1-K3)*H3+O4)/(N3+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P3">
+        <f>(H3+O4+P2)/(N3+1)-O3</f>
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <f>(K3+$A$2)*H3+($A$2+1)*I3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>($B$2+1-K3)*H3+($A$2+1)*I3+J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>L3-H4-I4</f>
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <f>$C$2+$D$2+$L$2-J3</f>
+        <v>80</v>
+      </c>
+      <c r="N4">
+        <f>(I4+J4)/(L4+M4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>((1-K4)*H4+O5)/(N4+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P4">
+        <f>(H4+O5+P3)/(N4+1)-O4</f>
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <f>(K4+$A$2)*H4+($A$2+1)*I4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>($B$2+1-K4)*H4+($A$2+1)*I4+J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>L4-H5-I5</f>
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <f>$C$2+$D$2+$L$2-J4</f>
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <f>(I5+J5)/(L5+M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>((1-K5)*H5+O6)/(N5+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P5">
+        <f>(H5+O6+P4)/(N5+1)-O5</f>
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <f>(K5+$A$2)*H5+($A$2+1)*I5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>($B$2+1-K5)*H5+($A$2+1)*I5+J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>L5-H6-I6</f>
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <f>$C$2+$D$2+$L$2-J5</f>
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <f>(I6+J6)/(L6+M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>((1-K6)*H6+O7)/(N6+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P6">
+        <f>(H6+O7+P5)/(N6+1)-O6</f>
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <f>(K6+$A$2)*H6+($A$2+1)*I6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>($B$2+1-K6)*H6+($A$2+1)*I6+J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>L6-H7-I7</f>
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <f>$C$2+$D$2+$L$2-J6</f>
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <f>(I7+J7)/(L7+M7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f>((1-K7)*H7+O8)/(N7+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P7">
+        <f>(H7+O8+P6)/(N7+1)-O7</f>
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <f>(K7+$A$2)*H7+($A$2+1)*I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>($B$2+1-K7)*H7+($A$2+1)*I7+J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>L7-H8-I8</f>
+        <v>-60</v>
+      </c>
+      <c r="M8">
+        <f>$C$2+$D$2+$L$2-J7</f>
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <f>(I8+J8)/(L8+M8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f>((1-K8)*H8+O9)/(N8+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P8">
+        <f>(H8+O9+P7)/(N8+1)-O8</f>
+        <v>140</v>
+      </c>
+      <c r="Q8">
+        <f>(K8+$A$2)*H8+($A$2+1)*I8-J8</f>
+        <v>200</v>
+      </c>
+      <c r="S8">
+        <f>($B$2+1-K8)*H8+($A$2+1)*I8+J8</f>
+        <v>133.33330000000001</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>L8-H9-I9</f>
+        <v>-60</v>
+      </c>
+      <c r="M9">
+        <f>$C$2+$D$2+$L$2-J8</f>
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <f>(I9+J9)/(L9+M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f>((1-K9)*H9+O10)/(N9+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P9">
+        <f>(H9+O10+P8)/(N9+1)-O9</f>
+        <v>140</v>
+      </c>
+      <c r="Q9">
+        <f>(K9+$A$2)*H9+($A$2+1)*I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>($B$2+1-K9)*H9+($A$2+1)*I9+J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>L9-H10-I10</f>
+        <v>-60</v>
+      </c>
+      <c r="M10">
+        <f>$C$2+$D$2+$L$2-J9</f>
+        <v>80</v>
+      </c>
+      <c r="N10">
+        <f>(I10+J10)/(L10+M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f>((1-K10)*H10+O11)/(N10+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P10">
+        <f>(H10+O11+P9)/(N10+1)-O10</f>
+        <v>140</v>
+      </c>
+      <c r="Q10">
+        <f>(K10+$A$2)*H10+($A$2+1)*I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>($B$2+1-K10)*H10+($A$2+1)*I10+J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>L10-H11-I11</f>
+        <v>-60</v>
+      </c>
+      <c r="M11">
+        <f>$C$2+$D$2+$L$2-J10</f>
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <f>(I11+J11)/(L11+M11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>((1-K11)*H11+O12)/(N11+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P11">
+        <f>(H11+O12+P10)/(N11+1)-O11</f>
+        <v>140</v>
+      </c>
+      <c r="Q11">
+        <f>(K11+$A$2)*H11+($A$2+1)*I11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>($B$2+1-K11)*H11+($A$2+1)*I11+J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>L11-H12-I12</f>
+        <v>-60</v>
+      </c>
+      <c r="M12">
+        <f>$C$2+$D$2+$L$2-J11</f>
+        <v>80</v>
+      </c>
+      <c r="N12">
+        <f>(I12+J12)/(L12+M12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>((1-K12)*H12+O13)/(N12+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P12">
+        <f>(H12+O13+P11)/(N12+1)-O12</f>
+        <v>140</v>
+      </c>
+      <c r="Q12">
+        <f>(K12+$A$2)*H12+($A$2+1)*I12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>($B$2+1-K12)*H12+($A$2+1)*I12+J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>L12-H13-I13</f>
+        <v>-60</v>
+      </c>
+      <c r="M13">
+        <f>$C$2+$D$2+$L$2-J12</f>
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <f>(I13+J13)/(L13+M13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f>((1-K13)*H13+O14)/(N13+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P13">
+        <f>(H13+O14+P12)/(N13+1)-O13</f>
+        <v>140</v>
+      </c>
+      <c r="Q13">
+        <f>(K13+$A$2)*H13+($A$2+1)*I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>($B$2+1-K13)*H13+($A$2+1)*I13+J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>L13-H14-I14</f>
+        <v>-60</v>
+      </c>
+      <c r="M14">
+        <f>$C$2+$D$2+$L$2-J13</f>
+        <v>80</v>
+      </c>
+      <c r="N14">
+        <f>(I14+J14)/(L14+M14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>((1-K14)*H14+O15)/(N14+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P14">
+        <f>(H14+O15+P13)/(N14+1)-O14</f>
+        <v>140</v>
+      </c>
+      <c r="Q14">
+        <f>(K14+$A$2)*H14+($A$2+1)*I14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>($B$2+1-K14)*H14+($A$2+1)*I14+J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f>L14-H15-I15</f>
+        <v>-60</v>
+      </c>
+      <c r="M15">
+        <f>$C$2+$D$2+$L$2-J14</f>
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <f>(I15+J15)/(L15+M15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>((1-K15)*H15+O16)/(N15+1)</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P15">
+        <f>(H15+O16+P14)/(N15+1)-O15</f>
+        <v>140</v>
+      </c>
+      <c r="Q15">
+        <f>(K15+$A$2)*H15+($A$2+1)*I15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>($B$2+1-K15)*H15+($A$2+1)*I15+J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>E2</f>
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <f>B2*L16</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="N16">
+        <f>(I16+J16)/(L16+M16)</f>
+        <v>0.42857148979592713</v>
+      </c>
+      <c r="O16">
+        <f>M16</f>
+        <v>79.999980000000008</v>
+      </c>
+      <c r="P16">
+        <f>L16</f>
+        <v>60</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="K17" s="2"/>
+      <c r="Q17">
+        <f>SUM(Q2:Q16)</f>
+        <v>200</v>
+      </c>
+      <c r="S17">
+        <f>SUM(S2:S16)</f>
+        <v>133.33330000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>